--- a/监督.xlsx
+++ b/监督.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F8A66E-1920-426A-A3B1-EDE0C3F407CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597CBE32-2679-4343-9D78-683434D6A65B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="-108" windowWidth="22776" windowHeight="13176" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="2592" yWindow="696" windowWidth="16248" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02495101-E5A4-4F2A-803C-CC7BBFBBC13A}">
   <dimension ref="B1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -946,8 +946,12 @@
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="5"/>
     </row>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597CBE32-2679-4343-9D78-683434D6A65B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15915F0-0C92-47E2-B717-DA874B448C42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2592" yWindow="696" windowWidth="16248" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="372" yWindow="-108" windowWidth="22776" windowHeight="13176" activeTab="1" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +146,18 @@
     <t>规定：1.周一到周五不能打游戏，如果打游戏，请最好有个说明。2.周六到周日酌情可以打下游戏。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>说话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然间好心酸，晚上还有实验要做，刚吃完饭，带给她一些我自认为的快乐，才突然发现，我在她的心中连一部剧都比不上，我这是为何，你又凭什么对我这样，仗着我喜欢你吗？难道我的关心在你心中就这么不值一提？有时候我也不知道为什么会这样，但我敢摸着我的良心说我对你是很真诚的。说实话，我有那么一刻真的不想找她说话了，对我没好感就不要在我准备放下的时候再给我希望，我知道，过几天后我还是会忘掉我现在心中的感受，又只会看见我认为的你所谓的好，突然觉得自己好可笑，真的好可笑。你真的只会为自己考虑，或与是我在你心中不重要吧，是，我承认，我承认我在你心中只是个阶段性的感情缓和工具吧，你知道吗，我有时候真的怀疑我看错人了，你或许不是我想象中的那个样子，也或一直是我在自作多情吧，我承认我玩不过你，但我不是不会那样，只是我的教育，我的经验，我的性格和我的人品告诉我那样是不好的，或许你有你的看法，我也不会对你的性格做一些批判性的建议，人各有志，成败在天，我累了，真的有点累了。。。。。。送完礼物我可能真的要退下了，我融不进你的心，我努力过，真的努力过。。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -230,7 +243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -429,13 +442,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,6 +522,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -842,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02495101-E5A4-4F2A-803C-CC7BBFBBC13A}">
   <dimension ref="B1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -858,34 +898,34 @@
   <sheetData>
     <row r="1" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -962,8 +1002,12 @@
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="5"/>
     </row>
@@ -3690,4 +3734,2115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B492575B-E53B-4335-9869-CE57198D0EA4}">
+  <dimension ref="B1:D232"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20">
+        <v>44325</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20">
+        <v>44326</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="20">
+        <v>44327</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="20">
+        <v>44328</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20">
+        <v>44329</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="20">
+        <v>44330</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="20">
+        <v>44331</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20">
+        <v>44332</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20">
+        <v>44333</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20">
+        <v>44334</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="20">
+        <v>44335</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="20">
+        <v>44336</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20">
+        <v>44337</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20">
+        <v>44338</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="20">
+        <v>44339</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="20">
+        <v>44340</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="20">
+        <v>44341</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="20">
+        <v>44342</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20">
+        <v>44343</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20">
+        <v>44344</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="20">
+        <v>44345</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="20">
+        <v>44346</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="20">
+        <v>44347</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="20">
+        <v>44348</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="20">
+        <v>44349</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="20">
+        <v>44350</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="20">
+        <v>44351</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="20">
+        <v>44352</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="20">
+        <v>44353</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="20">
+        <v>44354</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="20">
+        <v>44355</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="20">
+        <v>44356</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="20">
+        <v>44357</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="20">
+        <v>44358</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="20">
+        <v>44359</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="20">
+        <v>44360</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="20">
+        <v>44361</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="20">
+        <v>44362</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="20">
+        <v>44363</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="20">
+        <v>44364</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="20">
+        <v>44365</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="21"/>
+    </row>
+    <row r="43" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="20">
+        <v>44366</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="20">
+        <v>44367</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="20">
+        <v>44368</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="20">
+        <v>44369</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="20">
+        <v>44370</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="20">
+        <v>44371</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="21"/>
+    </row>
+    <row r="49" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="20">
+        <v>44372</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="20">
+        <v>44373</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="20">
+        <v>44374</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="20">
+        <v>44375</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="20">
+        <v>44376</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="20">
+        <v>44377</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="20">
+        <v>44378</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="20">
+        <v>44379</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="21"/>
+    </row>
+    <row r="57" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="20">
+        <v>44380</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="20">
+        <v>44381</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="20">
+        <v>44382</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="20">
+        <v>44383</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="20">
+        <v>44384</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="20">
+        <v>44385</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="21"/>
+    </row>
+    <row r="63" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="20">
+        <v>44386</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="20">
+        <v>44387</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="20">
+        <v>44388</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="20">
+        <v>44389</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="21"/>
+    </row>
+    <row r="67" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="20">
+        <v>44390</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="20">
+        <v>44391</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="21"/>
+    </row>
+    <row r="69" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="20">
+        <v>44392</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="21"/>
+    </row>
+    <row r="70" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="20">
+        <v>44393</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="20">
+        <v>44394</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="21"/>
+    </row>
+    <row r="72" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="20">
+        <v>44395</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="21"/>
+    </row>
+    <row r="73" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="20">
+        <v>44396</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="21"/>
+    </row>
+    <row r="74" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="20">
+        <v>44397</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="21"/>
+    </row>
+    <row r="75" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="20">
+        <v>44398</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="21"/>
+    </row>
+    <row r="76" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="20">
+        <v>44399</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="21"/>
+    </row>
+    <row r="77" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="20">
+        <v>44400</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="21"/>
+    </row>
+    <row r="78" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="20">
+        <v>44401</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="21"/>
+    </row>
+    <row r="79" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="20">
+        <v>44402</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="20">
+        <v>44403</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="21"/>
+    </row>
+    <row r="81" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="20">
+        <v>44404</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="21"/>
+    </row>
+    <row r="82" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="20">
+        <v>44405</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="21"/>
+    </row>
+    <row r="83" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="20">
+        <v>44406</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="21"/>
+    </row>
+    <row r="84" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="20">
+        <v>44407</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="21"/>
+    </row>
+    <row r="85" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="20">
+        <v>44408</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="21"/>
+    </row>
+    <row r="86" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="20">
+        <v>44409</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="21"/>
+    </row>
+    <row r="87" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="20">
+        <v>44410</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="21"/>
+    </row>
+    <row r="88" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="20">
+        <v>44411</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="21"/>
+    </row>
+    <row r="89" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="20">
+        <v>44412</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="21"/>
+    </row>
+    <row r="90" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="20">
+        <v>44413</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="21"/>
+    </row>
+    <row r="91" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="20">
+        <v>44414</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="21"/>
+    </row>
+    <row r="92" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="20">
+        <v>44415</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="21"/>
+    </row>
+    <row r="93" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="20">
+        <v>44416</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="21"/>
+    </row>
+    <row r="94" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="20">
+        <v>44417</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="21"/>
+    </row>
+    <row r="95" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="20">
+        <v>44418</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="21"/>
+    </row>
+    <row r="96" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="20">
+        <v>44419</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="21"/>
+    </row>
+    <row r="97" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="20">
+        <v>44420</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="21"/>
+    </row>
+    <row r="98" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="20">
+        <v>44421</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="21"/>
+    </row>
+    <row r="99" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="20">
+        <v>44422</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="21"/>
+    </row>
+    <row r="100" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="20">
+        <v>44423</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="21"/>
+    </row>
+    <row r="101" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="20">
+        <v>44424</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="21"/>
+    </row>
+    <row r="102" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="20">
+        <v>44425</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="21"/>
+    </row>
+    <row r="103" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="20">
+        <v>44426</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="21"/>
+    </row>
+    <row r="104" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="20">
+        <v>44427</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="21"/>
+    </row>
+    <row r="105" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="20">
+        <v>44428</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="21"/>
+    </row>
+    <row r="106" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="20">
+        <v>44429</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="21"/>
+    </row>
+    <row r="107" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="20">
+        <v>44430</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="21"/>
+    </row>
+    <row r="108" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="20">
+        <v>44431</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="21"/>
+    </row>
+    <row r="109" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="20">
+        <v>44432</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="21"/>
+    </row>
+    <row r="110" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="20">
+        <v>44433</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="21"/>
+    </row>
+    <row r="111" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="20">
+        <v>44434</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="21"/>
+    </row>
+    <row r="112" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="20">
+        <v>44435</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="21"/>
+    </row>
+    <row r="113" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="20">
+        <v>44436</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="21"/>
+    </row>
+    <row r="114" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="20">
+        <v>44437</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="21"/>
+    </row>
+    <row r="115" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="20">
+        <v>44438</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="21"/>
+    </row>
+    <row r="116" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="20">
+        <v>44439</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="21"/>
+    </row>
+    <row r="117" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="20">
+        <v>44440</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="21"/>
+    </row>
+    <row r="118" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="20">
+        <v>44441</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="21"/>
+    </row>
+    <row r="119" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="20">
+        <v>44442</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="21"/>
+    </row>
+    <row r="120" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="20">
+        <v>44443</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="21"/>
+    </row>
+    <row r="121" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="20">
+        <v>44444</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="21"/>
+    </row>
+    <row r="122" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="20">
+        <v>44445</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="21"/>
+    </row>
+    <row r="123" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="20">
+        <v>44446</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="21"/>
+    </row>
+    <row r="124" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="20">
+        <v>44447</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="21"/>
+    </row>
+    <row r="125" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="20">
+        <v>44448</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="21"/>
+    </row>
+    <row r="126" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="20">
+        <v>44449</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="21"/>
+    </row>
+    <row r="127" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="20">
+        <v>44450</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="21"/>
+    </row>
+    <row r="128" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="20">
+        <v>44451</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="21"/>
+    </row>
+    <row r="129" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="20">
+        <v>44452</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="21"/>
+    </row>
+    <row r="130" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="20">
+        <v>44453</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="21"/>
+    </row>
+    <row r="131" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="20">
+        <v>44454</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="21"/>
+    </row>
+    <row r="132" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="20">
+        <v>44455</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="21"/>
+    </row>
+    <row r="133" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="20">
+        <v>44456</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="21"/>
+    </row>
+    <row r="134" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="20">
+        <v>44457</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="21"/>
+    </row>
+    <row r="135" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="20">
+        <v>44458</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="21"/>
+    </row>
+    <row r="136" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="20">
+        <v>44459</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="21"/>
+    </row>
+    <row r="137" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="20">
+        <v>44460</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="21"/>
+    </row>
+    <row r="138" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="20">
+        <v>44461</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="21"/>
+    </row>
+    <row r="139" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="20">
+        <v>44462</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="21"/>
+    </row>
+    <row r="140" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="20">
+        <v>44463</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="21"/>
+    </row>
+    <row r="141" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="20">
+        <v>44464</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="21"/>
+    </row>
+    <row r="142" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="20">
+        <v>44465</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="21"/>
+    </row>
+    <row r="143" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="20">
+        <v>44466</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="21"/>
+    </row>
+    <row r="144" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="20">
+        <v>44467</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="21"/>
+    </row>
+    <row r="145" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="20">
+        <v>44468</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="21"/>
+    </row>
+    <row r="146" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="20">
+        <v>44469</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="21"/>
+    </row>
+    <row r="147" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="20">
+        <v>44470</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="21"/>
+    </row>
+    <row r="148" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="20">
+        <v>44471</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="21"/>
+    </row>
+    <row r="149" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="20">
+        <v>44472</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="21"/>
+    </row>
+    <row r="150" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="20">
+        <v>44473</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" s="21"/>
+    </row>
+    <row r="151" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="20">
+        <v>44474</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="21"/>
+    </row>
+    <row r="152" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="20">
+        <v>44475</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="21"/>
+    </row>
+    <row r="153" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="20">
+        <v>44476</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="21"/>
+    </row>
+    <row r="154" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="20">
+        <v>44477</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="21"/>
+    </row>
+    <row r="155" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="20">
+        <v>44478</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="21"/>
+    </row>
+    <row r="156" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="20">
+        <v>44479</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="21"/>
+    </row>
+    <row r="157" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="20">
+        <v>44480</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" s="21"/>
+    </row>
+    <row r="158" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="20">
+        <v>44481</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="21"/>
+    </row>
+    <row r="159" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="20">
+        <v>44482</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="21"/>
+    </row>
+    <row r="160" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="20">
+        <v>44483</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" s="21"/>
+    </row>
+    <row r="161" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="20">
+        <v>44484</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="21"/>
+    </row>
+    <row r="162" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="20">
+        <v>44485</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="21"/>
+    </row>
+    <row r="163" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="20">
+        <v>44486</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" s="21"/>
+    </row>
+    <row r="164" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="20">
+        <v>44487</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="21"/>
+    </row>
+    <row r="165" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="20">
+        <v>44488</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" s="21"/>
+    </row>
+    <row r="166" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="20">
+        <v>44489</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="21"/>
+    </row>
+    <row r="167" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="20">
+        <v>44490</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="21"/>
+    </row>
+    <row r="168" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="20">
+        <v>44491</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="21"/>
+    </row>
+    <row r="169" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="20">
+        <v>44492</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="21"/>
+    </row>
+    <row r="170" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="20">
+        <v>44493</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="21"/>
+    </row>
+    <row r="171" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="20">
+        <v>44494</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" s="21"/>
+    </row>
+    <row r="172" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="20">
+        <v>44495</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" s="21"/>
+    </row>
+    <row r="173" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="20">
+        <v>44496</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="21"/>
+    </row>
+    <row r="174" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="20">
+        <v>44497</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="21"/>
+    </row>
+    <row r="175" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="20">
+        <v>44498</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="21"/>
+    </row>
+    <row r="176" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="20">
+        <v>44499</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="21"/>
+    </row>
+    <row r="177" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="20">
+        <v>44500</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" s="21"/>
+    </row>
+    <row r="178" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="20">
+        <v>44501</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" s="21"/>
+    </row>
+    <row r="179" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="20">
+        <v>44502</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="21"/>
+    </row>
+    <row r="180" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="20">
+        <v>44503</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="21"/>
+    </row>
+    <row r="181" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="20">
+        <v>44504</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="21"/>
+    </row>
+    <row r="182" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="20">
+        <v>44505</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="21"/>
+    </row>
+    <row r="183" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="20">
+        <v>44506</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="21"/>
+    </row>
+    <row r="184" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="20">
+        <v>44507</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="21"/>
+    </row>
+    <row r="185" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="20">
+        <v>44508</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" s="21"/>
+    </row>
+    <row r="186" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="20">
+        <v>44509</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" s="21"/>
+    </row>
+    <row r="187" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="20">
+        <v>44510</v>
+      </c>
+      <c r="C187" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="21"/>
+    </row>
+    <row r="188" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="20">
+        <v>44511</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" s="21"/>
+    </row>
+    <row r="189" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="20">
+        <v>44512</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="21"/>
+    </row>
+    <row r="190" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="20">
+        <v>44513</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="21"/>
+    </row>
+    <row r="191" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="20">
+        <v>44514</v>
+      </c>
+      <c r="C191" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="21"/>
+    </row>
+    <row r="192" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="20">
+        <v>44515</v>
+      </c>
+      <c r="C192" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" s="21"/>
+    </row>
+    <row r="193" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="20">
+        <v>44516</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" s="21"/>
+    </row>
+    <row r="194" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="20">
+        <v>44517</v>
+      </c>
+      <c r="C194" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="21"/>
+    </row>
+    <row r="195" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="20">
+        <v>44518</v>
+      </c>
+      <c r="C195" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" s="21"/>
+    </row>
+    <row r="196" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="20">
+        <v>44519</v>
+      </c>
+      <c r="C196" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="21"/>
+    </row>
+    <row r="197" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="20">
+        <v>44520</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="21"/>
+    </row>
+    <row r="198" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="20">
+        <v>44521</v>
+      </c>
+      <c r="C198" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="21"/>
+    </row>
+    <row r="199" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="20">
+        <v>44522</v>
+      </c>
+      <c r="C199" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" s="21"/>
+    </row>
+    <row r="200" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="20">
+        <v>44523</v>
+      </c>
+      <c r="C200" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" s="21"/>
+    </row>
+    <row r="201" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="20">
+        <v>44524</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="21"/>
+    </row>
+    <row r="202" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="20">
+        <v>44525</v>
+      </c>
+      <c r="C202" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" s="21"/>
+    </row>
+    <row r="203" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="20">
+        <v>44526</v>
+      </c>
+      <c r="C203" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="21"/>
+    </row>
+    <row r="204" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="20">
+        <v>44527</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="21"/>
+    </row>
+    <row r="205" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="20">
+        <v>44528</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" s="21"/>
+    </row>
+    <row r="206" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="20">
+        <v>44529</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206" s="21"/>
+    </row>
+    <row r="207" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="20">
+        <v>44530</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207" s="21"/>
+    </row>
+    <row r="208" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="20">
+        <v>44531</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" s="21"/>
+    </row>
+    <row r="209" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="20">
+        <v>44532</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="21"/>
+    </row>
+    <row r="210" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="20">
+        <v>44533</v>
+      </c>
+      <c r="C210" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="21"/>
+    </row>
+    <row r="211" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="20">
+        <v>44534</v>
+      </c>
+      <c r="C211" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="21"/>
+    </row>
+    <row r="212" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="20">
+        <v>44535</v>
+      </c>
+      <c r="C212" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" s="21"/>
+    </row>
+    <row r="213" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="20">
+        <v>44536</v>
+      </c>
+      <c r="C213" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D213" s="21"/>
+    </row>
+    <row r="214" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="20">
+        <v>44537</v>
+      </c>
+      <c r="C214" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D214" s="21"/>
+    </row>
+    <row r="215" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="20">
+        <v>44538</v>
+      </c>
+      <c r="C215" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" s="21"/>
+    </row>
+    <row r="216" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="20">
+        <v>44539</v>
+      </c>
+      <c r="C216" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D216" s="21"/>
+    </row>
+    <row r="217" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="20">
+        <v>44540</v>
+      </c>
+      <c r="C217" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="21"/>
+    </row>
+    <row r="218" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="20">
+        <v>44541</v>
+      </c>
+      <c r="C218" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="21"/>
+    </row>
+    <row r="219" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="20">
+        <v>44542</v>
+      </c>
+      <c r="C219" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" s="21"/>
+    </row>
+    <row r="220" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="20">
+        <v>44543</v>
+      </c>
+      <c r="C220" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D220" s="21"/>
+    </row>
+    <row r="221" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="20">
+        <v>44544</v>
+      </c>
+      <c r="C221" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D221" s="21"/>
+    </row>
+    <row r="222" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="20">
+        <v>44545</v>
+      </c>
+      <c r="C222" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="21"/>
+    </row>
+    <row r="223" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="20">
+        <v>44546</v>
+      </c>
+      <c r="C223" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="21"/>
+    </row>
+    <row r="224" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="20">
+        <v>44547</v>
+      </c>
+      <c r="C224" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="21"/>
+    </row>
+    <row r="225" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="20">
+        <v>44548</v>
+      </c>
+      <c r="C225" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="21"/>
+    </row>
+    <row r="226" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="20">
+        <v>44549</v>
+      </c>
+      <c r="C226" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" s="21"/>
+    </row>
+    <row r="227" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="20">
+        <v>44550</v>
+      </c>
+      <c r="C227" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D227" s="21"/>
+    </row>
+    <row r="228" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="20">
+        <v>44551</v>
+      </c>
+      <c r="C228" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" s="21"/>
+    </row>
+    <row r="229" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="20">
+        <v>44552</v>
+      </c>
+      <c r="C229" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" s="21"/>
+    </row>
+    <row r="230" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="20">
+        <v>44553</v>
+      </c>
+      <c r="C230" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" s="21"/>
+    </row>
+    <row r="231" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="20">
+        <v>44554</v>
+      </c>
+      <c r="C231" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="21"/>
+    </row>
+    <row r="232" spans="2:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15915F0-0C92-47E2-B717-DA874B448C42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2491D851-1DC8-4B03-85C5-4CC54E0ADBBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="-108" windowWidth="22776" windowHeight="13176" activeTab="1" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="3612" yWindow="12" windowWidth="16248" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>突然间好心酸，晚上还有实验要做，刚吃完饭，带给她一些我自认为的快乐，才突然发现，我在她的心中连一部剧都比不上，我这是为何，你又凭什么对我这样，仗着我喜欢你吗？难道我的关心在你心中就这么不值一提？有时候我也不知道为什么会这样，但我敢摸着我的良心说我对你是很真诚的。说实话，我有那么一刻真的不想找她说话了，对我没好感就不要在我准备放下的时候再给我希望，我知道，过几天后我还是会忘掉我现在心中的感受，又只会看见我认为的你所谓的好，突然觉得自己好可笑，真的好可笑。你真的只会为自己考虑，或与是我在你心中不重要吧，是，我承认，我承认我在你心中只是个阶段性的感情缓和工具吧，你知道吗，我有时候真的怀疑我看错人了，你或许不是我想象中的那个样子，也或一直是我在自作多情吧，我承认我玩不过你，但我不是不会那样，只是我的教育，我的经验，我的性格和我的人品告诉我那样是不好的，或许你有你的看法，我也不会对你的性格做一些批判性的建议，人各有志，成败在天，我累了，真的有点累了。。。。。。送完礼物我可能真的要退下了，我融不进你的心，我努力过，真的努力过。。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02495101-E5A4-4F2A-803C-CC7BBFBBC13A}">
   <dimension ref="B1:G236"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1012,9 @@
       <c r="E9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -3740,7 +3746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B492575B-E53B-4335-9869-CE57198D0EA4}">
   <dimension ref="B1:D232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2491D851-1DC8-4B03-85C5-4CC54E0ADBBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AFFCB3-E1A8-4D4B-8350-146E24DEBF80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3612" yWindow="12" windowWidth="16248" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="3612" yWindow="12" windowWidth="16248" windowHeight="10884" activeTab="1" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,10 +156,6 @@
   </si>
   <si>
     <t>突然间好心酸，晚上还有实验要做，刚吃完饭，带给她一些我自认为的快乐，才突然发现，我在她的心中连一部剧都比不上，我这是为何，你又凭什么对我这样，仗着我喜欢你吗？难道我的关心在你心中就这么不值一提？有时候我也不知道为什么会这样，但我敢摸着我的良心说我对你是很真诚的。说实话，我有那么一刻真的不想找她说话了，对我没好感就不要在我准备放下的时候再给我希望，我知道，过几天后我还是会忘掉我现在心中的感受，又只会看见我认为的你所谓的好，突然觉得自己好可笑，真的好可笑。你真的只会为自己考虑，或与是我在你心中不重要吧，是，我承认，我承认我在你心中只是个阶段性的感情缓和工具吧，你知道吗，我有时候真的怀疑我看错人了，你或许不是我想象中的那个样子，也或一直是我在自作多情吧，我承认我玩不过你，但我不是不会那样，只是我的教育，我的经验，我的性格和我的人品告诉我那样是不好的，或许你有你的看法，我也不会对你的性格做一些批判性的建议，人各有志，成败在天，我累了，真的有点累了。。。。。。送完礼物我可能真的要退下了，我融不进你的心，我努力过，真的努力过。。。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02495101-E5A4-4F2A-803C-CC7BBFBBC13A}">
   <dimension ref="B1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1012,9 +1008,7 @@
       <c r="E9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -1024,8 +1018,12 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="5"/>
     </row>
@@ -3746,8 +3744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B492575B-E53B-4335-9869-CE57198D0EA4}">
   <dimension ref="B1:D232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3818,7 +3816,9 @@
       <c r="C6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="2:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20">

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AFFCB3-E1A8-4D4B-8350-146E24DEBF80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAE7DE8-A59B-4C40-AA05-F773818BCC38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3612" yWindow="12" windowWidth="16248" windowHeight="10884" activeTab="1" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="3612" yWindow="12" windowWidth="16248" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>突然间好心酸，晚上还有实验要做，刚吃完饭，带给她一些我自认为的快乐，才突然发现，我在她的心中连一部剧都比不上，我这是为何，你又凭什么对我这样，仗着我喜欢你吗？难道我的关心在你心中就这么不值一提？有时候我也不知道为什么会这样，但我敢摸着我的良心说我对你是很真诚的。说实话，我有那么一刻真的不想找她说话了，对我没好感就不要在我准备放下的时候再给我希望，我知道，过几天后我还是会忘掉我现在心中的感受，又只会看见我认为的你所谓的好，突然觉得自己好可笑，真的好可笑。你真的只会为自己考虑，或与是我在你心中不重要吧，是，我承认，我承认我在你心中只是个阶段性的感情缓和工具吧，你知道吗，我有时候真的怀疑我看错人了，你或许不是我想象中的那个样子，也或一直是我在自作多情吧，我承认我玩不过你，但我不是不会那样，只是我的教育，我的经验，我的性格和我的人品告诉我那样是不好的，或许你有你的看法，我也不会对你的性格做一些批判性的建议，人各有志，成败在天，我累了，真的有点累了。。。。。。送完礼物我可能真的要退下了，我融不进你的心，我努力过，真的努力过。。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我主动邀请她打的游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02495101-E5A4-4F2A-803C-CC7BBFBBC13A}">
   <dimension ref="B1:G236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1034,9 +1038,15 @@
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -1046,8 +1056,12 @@
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="5"/>
     </row>
@@ -3744,7 +3758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B492575B-E53B-4335-9869-CE57198D0EA4}">
   <dimension ref="B1:D232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26AD707-9DA7-42C6-A8AC-B9E83559F8F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C75FECA-D9EC-4627-84BE-448F2C907EA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5088" yWindow="1596" windowWidth="16248" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
@@ -887,7 +887,7 @@
   <dimension ref="B1:G236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1106,7 @@
       <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="14"/>
       <c r="F15" s="1"/>
       <c r="G15" s="5"/>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAE7DE8-A59B-4C40-AA05-F773818BCC38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26AD707-9DA7-42C6-A8AC-B9E83559F8F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3612" yWindow="12" windowWidth="16248" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="5088" yWindow="1596" windowWidth="16248" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02495101-E5A4-4F2A-803C-CC7BBFBBC13A}">
   <dimension ref="B1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1072,9 +1072,15 @@
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -1084,8 +1090,12 @@
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="5"/>
     </row>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C75FECA-D9EC-4627-84BE-448F2C907EA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3905DCEF-0EF6-4334-BFB1-B722EF4944CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5088" yWindow="1596" windowWidth="16248" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -887,7 +887,7 @@
   <dimension ref="B1:G236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1106,8 +1106,12 @@
       <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="5"/>
     </row>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3905DCEF-0EF6-4334-BFB1-B722EF4944CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012B72CB-CF57-4750-9A55-3C752BE553D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5088" yWindow="1596" windowWidth="16248" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -887,7 +887,7 @@
   <dimension ref="B1:G236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1122,8 +1122,12 @@
       <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="5"/>
     </row>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012B72CB-CF57-4750-9A55-3C752BE553D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375526CF-8F20-4108-BBFE-17D332E876C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5088" yWindow="1596" windowWidth="16248" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -887,7 +887,7 @@
   <dimension ref="B1:G236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1138,8 +1138,12 @@
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="5"/>
     </row>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375526CF-8F20-4108-BBFE-17D332E876C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B70C992-A773-4EFC-92DB-9A6C5657FA77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5088" yWindow="1596" windowWidth="16248" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="5292" yWindow="1848" windowWidth="16248" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,10 @@
   </si>
   <si>
     <t>我主动邀请她打的游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她邀请我打游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +891,7 @@
   <dimension ref="B1:G236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1154,10 +1158,16 @@
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="10">

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4486B88D-E701-4685-B263-9626770B5873}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951F3173-21F9-480A-9857-A46836D84FCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="-108" windowWidth="22776" windowHeight="13176" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="1248" yWindow="768" windowWidth="18288" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="53">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,9 +578,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,28 +599,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -634,12 +613,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -676,6 +649,33 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02495101-E5A4-4F2A-803C-CC7BBFBBC13A}">
   <dimension ref="B2:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1010,51 +1010,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="27" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1072,3804 +1072,3819 @@
       <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="30">
+      <c r="B6" s="21">
         <v>44325</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="18">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="14">
         <v>5</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="19">
         <v>2</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="19">
         <v>3</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="19">
         <f>I6/H6</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="34">
+      <c r="B7" s="25">
         <v>44326</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="34">
+      <c r="B8" s="25">
         <v>44327</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
+      <c r="B9" s="25">
         <v>44328</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="34">
+      <c r="B10" s="25">
         <v>44329</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="34">
+      <c r="B11" s="25">
         <v>44330</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="18">
+      <c r="G11" s="20"/>
+      <c r="H11" s="14">
         <v>5</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="19">
         <v>4</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="19">
         <v>1</v>
       </c>
-      <c r="K11" s="28">
-        <f t="shared" ref="K11:K19" si="0">I11/H11</f>
+      <c r="K11" s="19">
+        <f t="shared" ref="K11:K20" si="0">I11/H11</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="34">
+      <c r="B12" s="25">
         <v>44331</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="34">
+      <c r="B13" s="25">
         <v>44332</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="18">
+      <c r="G13" s="20"/>
+      <c r="H13" s="14">
         <v>9</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="19">
         <v>5</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="19">
         <v>4</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="19">
         <f t="shared" si="0"/>
         <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="34">
+      <c r="B14" s="25">
         <v>44333</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="34">
+      <c r="B15" s="25">
         <v>44334</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
+      <c r="B16" s="25">
         <v>44335</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="34">
+      <c r="B17" s="25">
         <v>44336</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="34">
+      <c r="B18" s="25">
         <v>44337</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="14">
         <v>3</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="19">
         <v>3</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="19">
         <v>0</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="34">
+      <c r="B19" s="25">
         <v>44338</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="18">
+      <c r="G19" s="19"/>
+      <c r="H19" s="14">
         <v>7</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="19">
         <v>3</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="19">
         <v>4</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="19">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="34">
+      <c r="B20" s="25">
         <v>44339</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="D20" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="14">
+        <v>5</v>
+      </c>
+      <c r="I20" s="19">
+        <v>4</v>
+      </c>
+      <c r="J20" s="19">
+        <v>1</v>
+      </c>
+      <c r="K20" s="19">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="34">
+      <c r="B21" s="25">
         <v>44340</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="34">
+      <c r="B22" s="25">
         <v>44341</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="34">
+      <c r="B23" s="25">
         <v>44342</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="34">
+      <c r="B24" s="25">
         <v>44343</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="34">
+      <c r="B25" s="25">
         <v>44344</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="34">
+      <c r="B26" s="25">
         <v>44345</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="34">
+      <c r="B27" s="25">
         <v>44346</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="34">
+      <c r="B28" s="25">
         <v>44347</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="34">
+      <c r="B29" s="25">
         <v>44348</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="34">
+      <c r="B30" s="25">
         <v>44349</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="34">
+      <c r="B31" s="25">
         <v>44350</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="34">
+      <c r="B32" s="25">
         <v>44351</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="34">
+      <c r="B33" s="25">
         <v>44352</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="34">
+      <c r="B34" s="25">
         <v>44353</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="34">
+      <c r="B35" s="25">
         <v>44354</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="34">
+      <c r="B36" s="25">
         <v>44355</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="34">
+      <c r="B37" s="25">
         <v>44356</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="34">
+      <c r="B38" s="25">
         <v>44357</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="34">
+      <c r="B39" s="25">
         <v>44358</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="34">
+      <c r="B40" s="25">
         <v>44359</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="34">
+      <c r="B41" s="25">
         <v>44360</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="34">
+      <c r="B42" s="25">
         <v>44361</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="34">
+      <c r="B43" s="25">
         <v>44362</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="34">
+      <c r="B44" s="25">
         <v>44363</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="34">
+      <c r="B45" s="25">
         <v>44364</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="34">
+      <c r="B46" s="25">
         <v>44365</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="34">
+      <c r="B47" s="25">
         <v>44366</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="34">
+      <c r="B48" s="25">
         <v>44367</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="34">
+      <c r="B49" s="25">
         <v>44368</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="34">
+      <c r="B50" s="25">
         <v>44369</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="34">
+      <c r="B51" s="25">
         <v>44370</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="34">
+      <c r="B52" s="25">
         <v>44371</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="34">
+      <c r="B53" s="25">
         <v>44372</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="34">
+      <c r="B54" s="25">
         <v>44373</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="34">
+      <c r="B55" s="25">
         <v>44374</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="34">
+      <c r="B56" s="25">
         <v>44375</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="34">
+      <c r="B57" s="25">
         <v>44376</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="34">
+      <c r="B58" s="25">
         <v>44377</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="34">
+      <c r="B59" s="25">
         <v>44378</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="34">
+      <c r="B60" s="25">
         <v>44379</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="34">
+      <c r="B61" s="25">
         <v>44380</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="34">
+      <c r="B62" s="25">
         <v>44381</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="34">
+      <c r="B63" s="25">
         <v>44382</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="34">
+      <c r="B64" s="25">
         <v>44383</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="34">
+      <c r="B65" s="25">
         <v>44384</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="34">
+      <c r="B66" s="25">
         <v>44385</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="34">
+      <c r="B67" s="25">
         <v>44386</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="34">
+      <c r="B68" s="25">
         <v>44387</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="34">
+      <c r="B69" s="25">
         <v>44388</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="34">
+      <c r="B70" s="25">
         <v>44389</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="34">
+      <c r="B71" s="25">
         <v>44390</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="34">
+      <c r="B72" s="25">
         <v>44391</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="34">
+      <c r="B73" s="25">
         <v>44392</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="34">
+      <c r="B74" s="25">
         <v>44393</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="34">
+      <c r="B75" s="25">
         <v>44394</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="34">
+      <c r="B76" s="25">
         <v>44395</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="34">
+      <c r="B77" s="25">
         <v>44396</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="34">
+      <c r="B78" s="25">
         <v>44397</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="34">
+      <c r="B79" s="25">
         <v>44398</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="34">
+      <c r="B80" s="25">
         <v>44399</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="34">
+      <c r="B81" s="25">
         <v>44400</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="34">
+      <c r="B82" s="25">
         <v>44401</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="34">
+      <c r="B83" s="25">
         <v>44402</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="34">
+      <c r="B84" s="25">
         <v>44403</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="34">
+      <c r="B85" s="25">
         <v>44404</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="34">
+      <c r="B86" s="25">
         <v>44405</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="34">
+      <c r="B87" s="25">
         <v>44406</v>
       </c>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="34">
+      <c r="B88" s="25">
         <v>44407</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="34">
+      <c r="B89" s="25">
         <v>44408</v>
       </c>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="34">
+      <c r="B90" s="25">
         <v>44409</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="34">
+      <c r="B91" s="25">
         <v>44410</v>
       </c>
-      <c r="C91" s="35" t="s">
+      <c r="C91" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="34">
+      <c r="B92" s="25">
         <v>44411</v>
       </c>
-      <c r="C92" s="35" t="s">
+      <c r="C92" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="34">
+      <c r="B93" s="25">
         <v>44412</v>
       </c>
-      <c r="C93" s="35" t="s">
+      <c r="C93" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="34">
+      <c r="B94" s="25">
         <v>44413</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95" s="34">
+      <c r="B95" s="25">
         <v>44414</v>
       </c>
-      <c r="C95" s="35" t="s">
+      <c r="C95" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="34">
+      <c r="B96" s="25">
         <v>44415</v>
       </c>
-      <c r="C96" s="35" t="s">
+      <c r="C96" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="34">
+      <c r="B97" s="25">
         <v>44416</v>
       </c>
-      <c r="C97" s="35" t="s">
+      <c r="C97" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
-      <c r="K97" s="28"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="34">
+      <c r="B98" s="25">
         <v>44417</v>
       </c>
-      <c r="C98" s="35" t="s">
+      <c r="C98" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="34">
+      <c r="B99" s="25">
         <v>44418</v>
       </c>
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="34">
+      <c r="B100" s="25">
         <v>44419</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="34">
+      <c r="B101" s="25">
         <v>44420</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="34">
+      <c r="B102" s="25">
         <v>44421</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="28"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="34">
+      <c r="B103" s="25">
         <v>44422</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="28"/>
-      <c r="K103" s="28"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="34">
+      <c r="B104" s="25">
         <v>44423</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
-      <c r="K104" s="28"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="34">
+      <c r="B105" s="25">
         <v>44424</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
-      <c r="K105" s="28"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="34">
+      <c r="B106" s="25">
         <v>44425</v>
       </c>
-      <c r="C106" s="35" t="s">
+      <c r="C106" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
-      <c r="K106" s="28"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="34">
+      <c r="B107" s="25">
         <v>44426</v>
       </c>
-      <c r="C107" s="35" t="s">
+      <c r="C107" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="28"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="34">
+      <c r="B108" s="25">
         <v>44427</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="C108" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28"/>
-      <c r="K108" s="28"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="34">
+      <c r="B109" s="25">
         <v>44428</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
-      <c r="K109" s="28"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="34">
+      <c r="B110" s="25">
         <v>44429</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28"/>
-      <c r="K110" s="28"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="34">
+      <c r="B111" s="25">
         <v>44430</v>
       </c>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="28"/>
-      <c r="K111" s="28"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="34">
+      <c r="B112" s="25">
         <v>44431</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="28"/>
-      <c r="J112" s="28"/>
-      <c r="K112" s="28"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="19"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="34">
+      <c r="B113" s="25">
         <v>44432</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="28"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="34">
+      <c r="B114" s="25">
         <v>44433</v>
       </c>
-      <c r="C114" s="35" t="s">
+      <c r="C114" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="29"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="28"/>
-      <c r="K114" s="28"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B115" s="34">
+      <c r="B115" s="25">
         <v>44434</v>
       </c>
-      <c r="C115" s="35" t="s">
+      <c r="C115" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="29"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
-      <c r="K115" s="28"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B116" s="34">
+      <c r="B116" s="25">
         <v>44435</v>
       </c>
-      <c r="C116" s="35" t="s">
+      <c r="C116" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28"/>
-      <c r="K116" s="28"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B117" s="34">
+      <c r="B117" s="25">
         <v>44436</v>
       </c>
-      <c r="C117" s="35" t="s">
+      <c r="C117" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="28"/>
-      <c r="J117" s="28"/>
-      <c r="K117" s="28"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="19"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="34">
+      <c r="B118" s="25">
         <v>44437</v>
       </c>
-      <c r="C118" s="35" t="s">
+      <c r="C118" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
-      <c r="K118" s="28"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="34">
+      <c r="B119" s="25">
         <v>44438</v>
       </c>
-      <c r="C119" s="35" t="s">
+      <c r="C119" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="28"/>
-      <c r="J119" s="28"/>
-      <c r="K119" s="28"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="34">
+      <c r="B120" s="25">
         <v>44439</v>
       </c>
-      <c r="C120" s="35" t="s">
+      <c r="C120" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="28"/>
-      <c r="J120" s="28"/>
-      <c r="K120" s="28"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B121" s="34">
+      <c r="B121" s="25">
         <v>44440</v>
       </c>
-      <c r="C121" s="35" t="s">
+      <c r="C121" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
-      <c r="K121" s="28"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="34">
+      <c r="B122" s="25">
         <v>44441</v>
       </c>
-      <c r="C122" s="35" t="s">
+      <c r="C122" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="28"/>
-      <c r="J122" s="28"/>
-      <c r="K122" s="28"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B123" s="34">
+      <c r="B123" s="25">
         <v>44442</v>
       </c>
-      <c r="C123" s="35" t="s">
+      <c r="C123" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="29"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="28"/>
-      <c r="J123" s="28"/>
-      <c r="K123" s="28"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B124" s="34">
+      <c r="B124" s="25">
         <v>44443</v>
       </c>
-      <c r="C124" s="35" t="s">
+      <c r="C124" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="29"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="28"/>
-      <c r="J124" s="28"/>
-      <c r="K124" s="28"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B125" s="34">
+      <c r="B125" s="25">
         <v>44444</v>
       </c>
-      <c r="C125" s="35" t="s">
+      <c r="C125" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="28"/>
-      <c r="J125" s="28"/>
-      <c r="K125" s="28"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B126" s="34">
+      <c r="B126" s="25">
         <v>44445</v>
       </c>
-      <c r="C126" s="35" t="s">
+      <c r="C126" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="28"/>
-      <c r="J126" s="28"/>
-      <c r="K126" s="28"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B127" s="34">
+      <c r="B127" s="25">
         <v>44446</v>
       </c>
-      <c r="C127" s="35" t="s">
+      <c r="C127" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="28"/>
-      <c r="J127" s="28"/>
-      <c r="K127" s="28"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B128" s="34">
+      <c r="B128" s="25">
         <v>44447</v>
       </c>
-      <c r="C128" s="35" t="s">
+      <c r="C128" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="18"/>
-      <c r="I128" s="28"/>
-      <c r="J128" s="28"/>
-      <c r="K128" s="28"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B129" s="34">
+      <c r="B129" s="25">
         <v>44448</v>
       </c>
-      <c r="C129" s="35" t="s">
+      <c r="C129" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="28"/>
-      <c r="J129" s="28"/>
-      <c r="K129" s="28"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B130" s="34">
+      <c r="B130" s="25">
         <v>44449</v>
       </c>
-      <c r="C130" s="35" t="s">
+      <c r="C130" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="29"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="28"/>
-      <c r="J130" s="28"/>
-      <c r="K130" s="28"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B131" s="34">
+      <c r="B131" s="25">
         <v>44450</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="28"/>
-      <c r="J131" s="28"/>
-      <c r="K131" s="28"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B132" s="34">
+      <c r="B132" s="25">
         <v>44451</v>
       </c>
-      <c r="C132" s="35" t="s">
+      <c r="C132" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="29"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="28"/>
-      <c r="J132" s="28"/>
-      <c r="K132" s="28"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B133" s="34">
+      <c r="B133" s="25">
         <v>44452</v>
       </c>
-      <c r="C133" s="35" t="s">
+      <c r="C133" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="18"/>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="28"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B134" s="34">
+      <c r="B134" s="25">
         <v>44453</v>
       </c>
-      <c r="C134" s="35" t="s">
+      <c r="C134" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="28"/>
-      <c r="J134" s="28"/>
-      <c r="K134" s="28"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B135" s="34">
+      <c r="B135" s="25">
         <v>44454</v>
       </c>
-      <c r="C135" s="35" t="s">
+      <c r="C135" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="28"/>
-      <c r="J135" s="28"/>
-      <c r="K135" s="28"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B136" s="34">
+      <c r="B136" s="25">
         <v>44455</v>
       </c>
-      <c r="C136" s="35" t="s">
+      <c r="C136" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="18"/>
-      <c r="I136" s="28"/>
-      <c r="J136" s="28"/>
-      <c r="K136" s="28"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B137" s="34">
+      <c r="B137" s="25">
         <v>44456</v>
       </c>
-      <c r="C137" s="35" t="s">
+      <c r="C137" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="18"/>
-      <c r="I137" s="28"/>
-      <c r="J137" s="28"/>
-      <c r="K137" s="28"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B138" s="34">
+      <c r="B138" s="25">
         <v>44457</v>
       </c>
-      <c r="C138" s="35" t="s">
+      <c r="C138" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="28"/>
-      <c r="J138" s="28"/>
-      <c r="K138" s="28"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B139" s="34">
+      <c r="B139" s="25">
         <v>44458</v>
       </c>
-      <c r="C139" s="35" t="s">
+      <c r="C139" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="28"/>
-      <c r="J139" s="28"/>
-      <c r="K139" s="28"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B140" s="34">
+      <c r="B140" s="25">
         <v>44459</v>
       </c>
-      <c r="C140" s="35" t="s">
+      <c r="C140" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="28"/>
-      <c r="J140" s="28"/>
-      <c r="K140" s="28"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19"/>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B141" s="34">
+      <c r="B141" s="25">
         <v>44460</v>
       </c>
-      <c r="C141" s="35" t="s">
+      <c r="C141" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="29"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="28"/>
-      <c r="J141" s="28"/>
-      <c r="K141" s="28"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="19"/>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B142" s="34">
+      <c r="B142" s="25">
         <v>44461</v>
       </c>
-      <c r="C142" s="35" t="s">
+      <c r="C142" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="29"/>
-      <c r="H142" s="18"/>
-      <c r="I142" s="28"/>
-      <c r="J142" s="28"/>
-      <c r="K142" s="28"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="19"/>
+      <c r="K142" s="19"/>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B143" s="34">
+      <c r="B143" s="25">
         <v>44462</v>
       </c>
-      <c r="C143" s="35" t="s">
+      <c r="C143" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="29"/>
-      <c r="H143" s="18"/>
-      <c r="I143" s="28"/>
-      <c r="J143" s="28"/>
-      <c r="K143" s="28"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="19"/>
+      <c r="K143" s="19"/>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B144" s="34">
+      <c r="B144" s="25">
         <v>44463</v>
       </c>
-      <c r="C144" s="35" t="s">
+      <c r="C144" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D144" s="28"/>
-      <c r="E144" s="28"/>
-      <c r="F144" s="29"/>
-      <c r="G144" s="29"/>
-      <c r="H144" s="18"/>
-      <c r="I144" s="28"/>
-      <c r="J144" s="28"/>
-      <c r="K144" s="28"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="19"/>
+      <c r="K144" s="19"/>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B145" s="34">
+      <c r="B145" s="25">
         <v>44464</v>
       </c>
-      <c r="C145" s="35" t="s">
+      <c r="C145" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="18"/>
-      <c r="I145" s="28"/>
-      <c r="J145" s="28"/>
-      <c r="K145" s="28"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="19"/>
+      <c r="K145" s="19"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B146" s="34">
+      <c r="B146" s="25">
         <v>44465</v>
       </c>
-      <c r="C146" s="35" t="s">
+      <c r="C146" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="18"/>
-      <c r="I146" s="28"/>
-      <c r="J146" s="28"/>
-      <c r="K146" s="28"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B147" s="34">
+      <c r="B147" s="25">
         <v>44466</v>
       </c>
-      <c r="C147" s="35" t="s">
+      <c r="C147" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="28"/>
-      <c r="J147" s="28"/>
-      <c r="K147" s="28"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B148" s="34">
+      <c r="B148" s="25">
         <v>44467</v>
       </c>
-      <c r="C148" s="35" t="s">
+      <c r="C148" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="18"/>
-      <c r="I148" s="28"/>
-      <c r="J148" s="28"/>
-      <c r="K148" s="28"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B149" s="34">
+      <c r="B149" s="25">
         <v>44468</v>
       </c>
-      <c r="C149" s="35" t="s">
+      <c r="C149" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="29"/>
-      <c r="H149" s="18"/>
-      <c r="I149" s="28"/>
-      <c r="J149" s="28"/>
-      <c r="K149" s="28"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19"/>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="34">
+      <c r="B150" s="25">
         <v>44469</v>
       </c>
-      <c r="C150" s="35" t="s">
+      <c r="C150" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="29"/>
-      <c r="G150" s="29"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="28"/>
-      <c r="J150" s="28"/>
-      <c r="K150" s="28"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="19"/>
+      <c r="K150" s="19"/>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B151" s="34">
+      <c r="B151" s="25">
         <v>44470</v>
       </c>
-      <c r="C151" s="35" t="s">
+      <c r="C151" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="29"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="28"/>
-      <c r="J151" s="28"/>
-      <c r="K151" s="28"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="19"/>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B152" s="34">
+      <c r="B152" s="25">
         <v>44471</v>
       </c>
-      <c r="C152" s="35" t="s">
+      <c r="C152" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D152" s="28"/>
-      <c r="E152" s="28"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="29"/>
-      <c r="H152" s="18"/>
-      <c r="I152" s="28"/>
-      <c r="J152" s="28"/>
-      <c r="K152" s="28"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19"/>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B153" s="34">
+      <c r="B153" s="25">
         <v>44472</v>
       </c>
-      <c r="C153" s="35" t="s">
+      <c r="C153" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D153" s="28"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="29"/>
-      <c r="H153" s="18"/>
-      <c r="I153" s="28"/>
-      <c r="J153" s="28"/>
-      <c r="K153" s="28"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="19"/>
+      <c r="K153" s="19"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B154" s="34">
+      <c r="B154" s="25">
         <v>44473</v>
       </c>
-      <c r="C154" s="35" t="s">
+      <c r="C154" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="28"/>
-      <c r="E154" s="28"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="18"/>
-      <c r="I154" s="28"/>
-      <c r="J154" s="28"/>
-      <c r="K154" s="28"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="19"/>
+      <c r="K154" s="19"/>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B155" s="34">
+      <c r="B155" s="25">
         <v>44474</v>
       </c>
-      <c r="C155" s="35" t="s">
+      <c r="C155" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D155" s="28"/>
-      <c r="E155" s="28"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="29"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="28"/>
-      <c r="J155" s="28"/>
-      <c r="K155" s="28"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19"/>
+      <c r="K155" s="19"/>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B156" s="34">
+      <c r="B156" s="25">
         <v>44475</v>
       </c>
-      <c r="C156" s="35" t="s">
+      <c r="C156" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D156" s="28"/>
-      <c r="E156" s="28"/>
-      <c r="F156" s="29"/>
-      <c r="G156" s="29"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="28"/>
-      <c r="J156" s="28"/>
-      <c r="K156" s="28"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="19"/>
+      <c r="K156" s="19"/>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B157" s="34">
+      <c r="B157" s="25">
         <v>44476</v>
       </c>
-      <c r="C157" s="35" t="s">
+      <c r="C157" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D157" s="28"/>
-      <c r="E157" s="28"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="29"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="28"/>
-      <c r="J157" s="28"/>
-      <c r="K157" s="28"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="19"/>
+      <c r="K157" s="19"/>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B158" s="34">
+      <c r="B158" s="25">
         <v>44477</v>
       </c>
-      <c r="C158" s="35" t="s">
+      <c r="C158" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D158" s="28"/>
-      <c r="E158" s="28"/>
-      <c r="F158" s="29"/>
-      <c r="G158" s="29"/>
-      <c r="H158" s="18"/>
-      <c r="I158" s="28"/>
-      <c r="J158" s="28"/>
-      <c r="K158" s="28"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="19"/>
+      <c r="K158" s="19"/>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B159" s="34">
+      <c r="B159" s="25">
         <v>44478</v>
       </c>
-      <c r="C159" s="35" t="s">
+      <c r="C159" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D159" s="28"/>
-      <c r="E159" s="28"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="29"/>
-      <c r="H159" s="18"/>
-      <c r="I159" s="28"/>
-      <c r="J159" s="28"/>
-      <c r="K159" s="28"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="19"/>
+      <c r="K159" s="19"/>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B160" s="34">
+      <c r="B160" s="25">
         <v>44479</v>
       </c>
-      <c r="C160" s="35" t="s">
+      <c r="C160" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D160" s="28"/>
-      <c r="E160" s="28"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="18"/>
-      <c r="I160" s="28"/>
-      <c r="J160" s="28"/>
-      <c r="K160" s="28"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="19"/>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B161" s="34">
+      <c r="B161" s="25">
         <v>44480</v>
       </c>
-      <c r="C161" s="35" t="s">
+      <c r="C161" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D161" s="28"/>
-      <c r="E161" s="28"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="29"/>
-      <c r="H161" s="18"/>
-      <c r="I161" s="28"/>
-      <c r="J161" s="28"/>
-      <c r="K161" s="28"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="19"/>
+      <c r="K161" s="19"/>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B162" s="34">
+      <c r="B162" s="25">
         <v>44481</v>
       </c>
-      <c r="C162" s="35" t="s">
+      <c r="C162" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D162" s="28"/>
-      <c r="E162" s="28"/>
-      <c r="F162" s="29"/>
-      <c r="G162" s="29"/>
-      <c r="H162" s="18"/>
-      <c r="I162" s="28"/>
-      <c r="J162" s="28"/>
-      <c r="K162" s="28"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="19"/>
+      <c r="K162" s="19"/>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B163" s="34">
+      <c r="B163" s="25">
         <v>44482</v>
       </c>
-      <c r="C163" s="35" t="s">
+      <c r="C163" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D163" s="28"/>
-      <c r="E163" s="28"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="29"/>
-      <c r="H163" s="18"/>
-      <c r="I163" s="28"/>
-      <c r="J163" s="28"/>
-      <c r="K163" s="28"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="19"/>
+      <c r="K163" s="19"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B164" s="34">
+      <c r="B164" s="25">
         <v>44483</v>
       </c>
-      <c r="C164" s="35" t="s">
+      <c r="C164" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D164" s="28"/>
-      <c r="E164" s="28"/>
-      <c r="F164" s="29"/>
-      <c r="G164" s="29"/>
-      <c r="H164" s="18"/>
-      <c r="I164" s="28"/>
-      <c r="J164" s="28"/>
-      <c r="K164" s="28"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19"/>
+      <c r="K164" s="19"/>
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B165" s="34">
+      <c r="B165" s="25">
         <v>44484</v>
       </c>
-      <c r="C165" s="35" t="s">
+      <c r="C165" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D165" s="28"/>
-      <c r="E165" s="28"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="29"/>
-      <c r="H165" s="18"/>
-      <c r="I165" s="28"/>
-      <c r="J165" s="28"/>
-      <c r="K165" s="28"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="19"/>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B166" s="34">
+      <c r="B166" s="25">
         <v>44485</v>
       </c>
-      <c r="C166" s="35" t="s">
+      <c r="C166" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D166" s="28"/>
-      <c r="E166" s="28"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="29"/>
-      <c r="H166" s="18"/>
-      <c r="I166" s="28"/>
-      <c r="J166" s="28"/>
-      <c r="K166" s="28"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="19"/>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B167" s="34">
+      <c r="B167" s="25">
         <v>44486</v>
       </c>
-      <c r="C167" s="35" t="s">
+      <c r="C167" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D167" s="28"/>
-      <c r="E167" s="28"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="18"/>
-      <c r="I167" s="28"/>
-      <c r="J167" s="28"/>
-      <c r="K167" s="28"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="19"/>
+      <c r="K167" s="19"/>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B168" s="34">
+      <c r="B168" s="25">
         <v>44487</v>
       </c>
-      <c r="C168" s="35" t="s">
+      <c r="C168" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="28"/>
-      <c r="E168" s="28"/>
-      <c r="F168" s="29"/>
-      <c r="G168" s="29"/>
-      <c r="H168" s="18"/>
-      <c r="I168" s="28"/>
-      <c r="J168" s="28"/>
-      <c r="K168" s="28"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="14"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="19"/>
+      <c r="K168" s="19"/>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B169" s="34">
+      <c r="B169" s="25">
         <v>44488</v>
       </c>
-      <c r="C169" s="35" t="s">
+      <c r="C169" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="29"/>
-      <c r="H169" s="18"/>
-      <c r="I169" s="28"/>
-      <c r="J169" s="28"/>
-      <c r="K169" s="28"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="14"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="19"/>
+      <c r="K169" s="19"/>
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B170" s="34">
+      <c r="B170" s="25">
         <v>44489</v>
       </c>
-      <c r="C170" s="35" t="s">
+      <c r="C170" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D170" s="28"/>
-      <c r="E170" s="28"/>
-      <c r="F170" s="29"/>
-      <c r="G170" s="29"/>
-      <c r="H170" s="18"/>
-      <c r="I170" s="28"/>
-      <c r="J170" s="28"/>
-      <c r="K170" s="28"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="19"/>
+      <c r="K170" s="19"/>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B171" s="34">
+      <c r="B171" s="25">
         <v>44490</v>
       </c>
-      <c r="C171" s="35" t="s">
+      <c r="C171" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D171" s="28"/>
-      <c r="E171" s="28"/>
-      <c r="F171" s="29"/>
-      <c r="G171" s="29"/>
-      <c r="H171" s="18"/>
-      <c r="I171" s="28"/>
-      <c r="J171" s="28"/>
-      <c r="K171" s="28"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="14"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="19"/>
+      <c r="K171" s="19"/>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B172" s="34">
+      <c r="B172" s="25">
         <v>44491</v>
       </c>
-      <c r="C172" s="35" t="s">
+      <c r="C172" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D172" s="28"/>
-      <c r="E172" s="28"/>
-      <c r="F172" s="29"/>
-      <c r="G172" s="29"/>
-      <c r="H172" s="18"/>
-      <c r="I172" s="28"/>
-      <c r="J172" s="28"/>
-      <c r="K172" s="28"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="14"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="19"/>
+      <c r="K172" s="19"/>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B173" s="34">
+      <c r="B173" s="25">
         <v>44492</v>
       </c>
-      <c r="C173" s="35" t="s">
+      <c r="C173" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D173" s="28"/>
-      <c r="E173" s="28"/>
-      <c r="F173" s="29"/>
-      <c r="G173" s="29"/>
-      <c r="H173" s="18"/>
-      <c r="I173" s="28"/>
-      <c r="J173" s="28"/>
-      <c r="K173" s="28"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="14"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="19"/>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B174" s="34">
+      <c r="B174" s="25">
         <v>44493</v>
       </c>
-      <c r="C174" s="35" t="s">
+      <c r="C174" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D174" s="28"/>
-      <c r="E174" s="28"/>
-      <c r="F174" s="29"/>
-      <c r="G174" s="29"/>
-      <c r="H174" s="18"/>
-      <c r="I174" s="28"/>
-      <c r="J174" s="28"/>
-      <c r="K174" s="28"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="20"/>
+      <c r="H174" s="14"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="19"/>
+      <c r="K174" s="19"/>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B175" s="34">
+      <c r="B175" s="25">
         <v>44494</v>
       </c>
-      <c r="C175" s="35" t="s">
+      <c r="C175" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="28"/>
-      <c r="E175" s="28"/>
-      <c r="F175" s="29"/>
-      <c r="G175" s="29"/>
-      <c r="H175" s="18"/>
-      <c r="I175" s="28"/>
-      <c r="J175" s="28"/>
-      <c r="K175" s="28"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="14"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="19"/>
+      <c r="K175" s="19"/>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B176" s="34">
+      <c r="B176" s="25">
         <v>44495</v>
       </c>
-      <c r="C176" s="35" t="s">
+      <c r="C176" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D176" s="28"/>
-      <c r="E176" s="28"/>
-      <c r="F176" s="29"/>
-      <c r="G176" s="29"/>
-      <c r="H176" s="18"/>
-      <c r="I176" s="28"/>
-      <c r="J176" s="28"/>
-      <c r="K176" s="28"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="19"/>
+      <c r="K176" s="19"/>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="34">
+      <c r="B177" s="25">
         <v>44496</v>
       </c>
-      <c r="C177" s="35" t="s">
+      <c r="C177" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D177" s="28"/>
-      <c r="E177" s="28"/>
-      <c r="F177" s="29"/>
-      <c r="G177" s="29"/>
-      <c r="H177" s="18"/>
-      <c r="I177" s="28"/>
-      <c r="J177" s="28"/>
-      <c r="K177" s="28"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="20"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="19"/>
+      <c r="K177" s="19"/>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="34">
+      <c r="B178" s="25">
         <v>44497</v>
       </c>
-      <c r="C178" s="35" t="s">
+      <c r="C178" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="29"/>
-      <c r="G178" s="29"/>
-      <c r="H178" s="18"/>
-      <c r="I178" s="28"/>
-      <c r="J178" s="28"/>
-      <c r="K178" s="28"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="20"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="19"/>
+      <c r="K178" s="19"/>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B179" s="34">
+      <c r="B179" s="25">
         <v>44498</v>
       </c>
-      <c r="C179" s="35" t="s">
+      <c r="C179" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="29"/>
-      <c r="G179" s="29"/>
-      <c r="H179" s="18"/>
-      <c r="I179" s="28"/>
-      <c r="J179" s="28"/>
-      <c r="K179" s="28"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="20"/>
+      <c r="H179" s="14"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="19"/>
+      <c r="K179" s="19"/>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B180" s="34">
+      <c r="B180" s="25">
         <v>44499</v>
       </c>
-      <c r="C180" s="35" t="s">
+      <c r="C180" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D180" s="28"/>
-      <c r="E180" s="28"/>
-      <c r="F180" s="29"/>
-      <c r="G180" s="29"/>
-      <c r="H180" s="18"/>
-      <c r="I180" s="28"/>
-      <c r="J180" s="28"/>
-      <c r="K180" s="28"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="19"/>
+      <c r="K180" s="19"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B181" s="34">
+      <c r="B181" s="25">
         <v>44500</v>
       </c>
-      <c r="C181" s="35" t="s">
+      <c r="C181" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D181" s="28"/>
-      <c r="E181" s="28"/>
-      <c r="F181" s="29"/>
-      <c r="G181" s="29"/>
-      <c r="H181" s="18"/>
-      <c r="I181" s="28"/>
-      <c r="J181" s="28"/>
-      <c r="K181" s="28"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="19"/>
+      <c r="K181" s="19"/>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B182" s="34">
+      <c r="B182" s="25">
         <v>44501</v>
       </c>
-      <c r="C182" s="35" t="s">
+      <c r="C182" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="28"/>
-      <c r="E182" s="28"/>
-      <c r="F182" s="29"/>
-      <c r="G182" s="29"/>
-      <c r="H182" s="18"/>
-      <c r="I182" s="28"/>
-      <c r="J182" s="28"/>
-      <c r="K182" s="28"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="19"/>
+      <c r="K182" s="19"/>
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B183" s="34">
+      <c r="B183" s="25">
         <v>44502</v>
       </c>
-      <c r="C183" s="35" t="s">
+      <c r="C183" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D183" s="28"/>
-      <c r="E183" s="28"/>
-      <c r="F183" s="29"/>
-      <c r="G183" s="29"/>
-      <c r="H183" s="18"/>
-      <c r="I183" s="28"/>
-      <c r="J183" s="28"/>
-      <c r="K183" s="28"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="20"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="19"/>
+      <c r="K183" s="19"/>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B184" s="34">
+      <c r="B184" s="25">
         <v>44503</v>
       </c>
-      <c r="C184" s="35" t="s">
+      <c r="C184" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D184" s="28"/>
-      <c r="E184" s="28"/>
-      <c r="F184" s="29"/>
-      <c r="G184" s="29"/>
-      <c r="H184" s="18"/>
-      <c r="I184" s="28"/>
-      <c r="J184" s="28"/>
-      <c r="K184" s="28"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="20"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="19"/>
+      <c r="K184" s="19"/>
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B185" s="34">
+      <c r="B185" s="25">
         <v>44504</v>
       </c>
-      <c r="C185" s="35" t="s">
+      <c r="C185" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D185" s="28"/>
-      <c r="E185" s="28"/>
-      <c r="F185" s="29"/>
-      <c r="G185" s="29"/>
-      <c r="H185" s="18"/>
-      <c r="I185" s="28"/>
-      <c r="J185" s="28"/>
-      <c r="K185" s="28"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="20"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="19"/>
+      <c r="K185" s="19"/>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B186" s="34">
+      <c r="B186" s="25">
         <v>44505</v>
       </c>
-      <c r="C186" s="35" t="s">
+      <c r="C186" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D186" s="28"/>
-      <c r="E186" s="28"/>
-      <c r="F186" s="29"/>
-      <c r="G186" s="29"/>
-      <c r="H186" s="18"/>
-      <c r="I186" s="28"/>
-      <c r="J186" s="28"/>
-      <c r="K186" s="28"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="20"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="19"/>
+      <c r="K186" s="19"/>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B187" s="34">
+      <c r="B187" s="25">
         <v>44506</v>
       </c>
-      <c r="C187" s="35" t="s">
+      <c r="C187" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D187" s="28"/>
-      <c r="E187" s="28"/>
-      <c r="F187" s="29"/>
-      <c r="G187" s="29"/>
-      <c r="H187" s="18"/>
-      <c r="I187" s="28"/>
-      <c r="J187" s="28"/>
-      <c r="K187" s="28"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="20"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="19"/>
+      <c r="K187" s="19"/>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B188" s="34">
+      <c r="B188" s="25">
         <v>44507</v>
       </c>
-      <c r="C188" s="35" t="s">
+      <c r="C188" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D188" s="28"/>
-      <c r="E188" s="28"/>
-      <c r="F188" s="29"/>
-      <c r="G188" s="29"/>
-      <c r="H188" s="18"/>
-      <c r="I188" s="28"/>
-      <c r="J188" s="28"/>
-      <c r="K188" s="28"/>
+      <c r="D188" s="19"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="20"/>
+      <c r="H188" s="14"/>
+      <c r="I188" s="19"/>
+      <c r="J188" s="19"/>
+      <c r="K188" s="19"/>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B189" s="34">
+      <c r="B189" s="25">
         <v>44508</v>
       </c>
-      <c r="C189" s="35" t="s">
+      <c r="C189" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D189" s="28"/>
-      <c r="E189" s="28"/>
-      <c r="F189" s="29"/>
-      <c r="G189" s="29"/>
-      <c r="H189" s="18"/>
-      <c r="I189" s="28"/>
-      <c r="J189" s="28"/>
-      <c r="K189" s="28"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="20"/>
+      <c r="H189" s="14"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="19"/>
+      <c r="K189" s="19"/>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B190" s="34">
+      <c r="B190" s="25">
         <v>44509</v>
       </c>
-      <c r="C190" s="35" t="s">
+      <c r="C190" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D190" s="28"/>
-      <c r="E190" s="28"/>
-      <c r="F190" s="29"/>
-      <c r="G190" s="29"/>
-      <c r="H190" s="18"/>
-      <c r="I190" s="28"/>
-      <c r="J190" s="28"/>
-      <c r="K190" s="28"/>
+      <c r="D190" s="19"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="20"/>
+      <c r="H190" s="14"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="19"/>
+      <c r="K190" s="19"/>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B191" s="34">
+      <c r="B191" s="25">
         <v>44510</v>
       </c>
-      <c r="C191" s="35" t="s">
+      <c r="C191" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D191" s="28"/>
-      <c r="E191" s="28"/>
-      <c r="F191" s="29"/>
-      <c r="G191" s="29"/>
-      <c r="H191" s="18"/>
-      <c r="I191" s="28"/>
-      <c r="J191" s="28"/>
-      <c r="K191" s="28"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="20"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="19"/>
+      <c r="K191" s="19"/>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B192" s="34">
+      <c r="B192" s="25">
         <v>44511</v>
       </c>
-      <c r="C192" s="35" t="s">
+      <c r="C192" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D192" s="28"/>
-      <c r="E192" s="28"/>
-      <c r="F192" s="29"/>
-      <c r="G192" s="29"/>
-      <c r="H192" s="18"/>
-      <c r="I192" s="28"/>
-      <c r="J192" s="28"/>
-      <c r="K192" s="28"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="20"/>
+      <c r="H192" s="14"/>
+      <c r="I192" s="19"/>
+      <c r="J192" s="19"/>
+      <c r="K192" s="19"/>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B193" s="34">
+      <c r="B193" s="25">
         <v>44512</v>
       </c>
-      <c r="C193" s="35" t="s">
+      <c r="C193" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D193" s="28"/>
-      <c r="E193" s="28"/>
-      <c r="F193" s="29"/>
-      <c r="G193" s="29"/>
-      <c r="H193" s="18"/>
-      <c r="I193" s="28"/>
-      <c r="J193" s="28"/>
-      <c r="K193" s="28"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="20"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="19"/>
+      <c r="K193" s="19"/>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B194" s="34">
+      <c r="B194" s="25">
         <v>44513</v>
       </c>
-      <c r="C194" s="35" t="s">
+      <c r="C194" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D194" s="28"/>
-      <c r="E194" s="28"/>
-      <c r="F194" s="29"/>
-      <c r="G194" s="29"/>
-      <c r="H194" s="18"/>
-      <c r="I194" s="28"/>
-      <c r="J194" s="28"/>
-      <c r="K194" s="28"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="20"/>
+      <c r="H194" s="14"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="19"/>
+      <c r="K194" s="19"/>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B195" s="34">
+      <c r="B195" s="25">
         <v>44514</v>
       </c>
-      <c r="C195" s="35" t="s">
+      <c r="C195" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D195" s="28"/>
-      <c r="E195" s="28"/>
-      <c r="F195" s="29"/>
-      <c r="G195" s="29"/>
-      <c r="H195" s="18"/>
-      <c r="I195" s="28"/>
-      <c r="J195" s="28"/>
-      <c r="K195" s="28"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="20"/>
+      <c r="H195" s="14"/>
+      <c r="I195" s="19"/>
+      <c r="J195" s="19"/>
+      <c r="K195" s="19"/>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B196" s="34">
+      <c r="B196" s="25">
         <v>44515</v>
       </c>
-      <c r="C196" s="35" t="s">
+      <c r="C196" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D196" s="28"/>
-      <c r="E196" s="28"/>
-      <c r="F196" s="29"/>
-      <c r="G196" s="29"/>
-      <c r="H196" s="18"/>
-      <c r="I196" s="28"/>
-      <c r="J196" s="28"/>
-      <c r="K196" s="28"/>
+      <c r="D196" s="19"/>
+      <c r="E196" s="19"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="14"/>
+      <c r="I196" s="19"/>
+      <c r="J196" s="19"/>
+      <c r="K196" s="19"/>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B197" s="34">
+      <c r="B197" s="25">
         <v>44516</v>
       </c>
-      <c r="C197" s="35" t="s">
+      <c r="C197" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D197" s="28"/>
-      <c r="E197" s="28"/>
-      <c r="F197" s="29"/>
-      <c r="G197" s="29"/>
-      <c r="H197" s="18"/>
-      <c r="I197" s="28"/>
-      <c r="J197" s="28"/>
-      <c r="K197" s="28"/>
+      <c r="D197" s="19"/>
+      <c r="E197" s="19"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="20"/>
+      <c r="H197" s="14"/>
+      <c r="I197" s="19"/>
+      <c r="J197" s="19"/>
+      <c r="K197" s="19"/>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B198" s="34">
+      <c r="B198" s="25">
         <v>44517</v>
       </c>
-      <c r="C198" s="35" t="s">
+      <c r="C198" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D198" s="28"/>
-      <c r="E198" s="28"/>
-      <c r="F198" s="29"/>
-      <c r="G198" s="29"/>
-      <c r="H198" s="18"/>
-      <c r="I198" s="28"/>
-      <c r="J198" s="28"/>
-      <c r="K198" s="28"/>
+      <c r="D198" s="19"/>
+      <c r="E198" s="19"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="20"/>
+      <c r="H198" s="14"/>
+      <c r="I198" s="19"/>
+      <c r="J198" s="19"/>
+      <c r="K198" s="19"/>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B199" s="34">
+      <c r="B199" s="25">
         <v>44518</v>
       </c>
-      <c r="C199" s="35" t="s">
+      <c r="C199" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D199" s="28"/>
-      <c r="E199" s="28"/>
-      <c r="F199" s="29"/>
-      <c r="G199" s="29"/>
-      <c r="H199" s="18"/>
-      <c r="I199" s="28"/>
-      <c r="J199" s="28"/>
-      <c r="K199" s="28"/>
+      <c r="D199" s="19"/>
+      <c r="E199" s="19"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="20"/>
+      <c r="H199" s="14"/>
+      <c r="I199" s="19"/>
+      <c r="J199" s="19"/>
+      <c r="K199" s="19"/>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B200" s="34">
+      <c r="B200" s="25">
         <v>44519</v>
       </c>
-      <c r="C200" s="35" t="s">
+      <c r="C200" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D200" s="28"/>
-      <c r="E200" s="28"/>
-      <c r="F200" s="29"/>
-      <c r="G200" s="29"/>
-      <c r="H200" s="18"/>
-      <c r="I200" s="28"/>
-      <c r="J200" s="28"/>
-      <c r="K200" s="28"/>
+      <c r="D200" s="19"/>
+      <c r="E200" s="19"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="20"/>
+      <c r="H200" s="14"/>
+      <c r="I200" s="19"/>
+      <c r="J200" s="19"/>
+      <c r="K200" s="19"/>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B201" s="34">
+      <c r="B201" s="25">
         <v>44520</v>
       </c>
-      <c r="C201" s="35" t="s">
+      <c r="C201" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D201" s="28"/>
-      <c r="E201" s="28"/>
-      <c r="F201" s="29"/>
-      <c r="G201" s="29"/>
-      <c r="H201" s="18"/>
-      <c r="I201" s="28"/>
-      <c r="J201" s="28"/>
-      <c r="K201" s="28"/>
+      <c r="D201" s="19"/>
+      <c r="E201" s="19"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="20"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="19"/>
+      <c r="J201" s="19"/>
+      <c r="K201" s="19"/>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B202" s="34">
+      <c r="B202" s="25">
         <v>44521</v>
       </c>
-      <c r="C202" s="35" t="s">
+      <c r="C202" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D202" s="28"/>
-      <c r="E202" s="28"/>
-      <c r="F202" s="29"/>
-      <c r="G202" s="29"/>
-      <c r="H202" s="18"/>
-      <c r="I202" s="28"/>
-      <c r="J202" s="28"/>
-      <c r="K202" s="28"/>
+      <c r="D202" s="19"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="20"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="19"/>
+      <c r="J202" s="19"/>
+      <c r="K202" s="19"/>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B203" s="34">
+      <c r="B203" s="25">
         <v>44522</v>
       </c>
-      <c r="C203" s="35" t="s">
+      <c r="C203" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D203" s="28"/>
-      <c r="E203" s="28"/>
-      <c r="F203" s="29"/>
-      <c r="G203" s="29"/>
-      <c r="H203" s="18"/>
-      <c r="I203" s="28"/>
-      <c r="J203" s="28"/>
-      <c r="K203" s="28"/>
+      <c r="D203" s="19"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="20"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="19"/>
+      <c r="J203" s="19"/>
+      <c r="K203" s="19"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B204" s="34">
+      <c r="B204" s="25">
         <v>44523</v>
       </c>
-      <c r="C204" s="35" t="s">
+      <c r="C204" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D204" s="28"/>
-      <c r="E204" s="28"/>
-      <c r="F204" s="29"/>
-      <c r="G204" s="29"/>
-      <c r="H204" s="18"/>
-      <c r="I204" s="28"/>
-      <c r="J204" s="28"/>
-      <c r="K204" s="28"/>
+      <c r="D204" s="19"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="20"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="19"/>
+      <c r="J204" s="19"/>
+      <c r="K204" s="19"/>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B205" s="34">
+      <c r="B205" s="25">
         <v>44524</v>
       </c>
-      <c r="C205" s="35" t="s">
+      <c r="C205" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D205" s="28"/>
-      <c r="E205" s="28"/>
-      <c r="F205" s="29"/>
-      <c r="G205" s="29"/>
-      <c r="H205" s="18"/>
-      <c r="I205" s="28"/>
-      <c r="J205" s="28"/>
-      <c r="K205" s="28"/>
+      <c r="D205" s="19"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="20"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="19"/>
+      <c r="J205" s="19"/>
+      <c r="K205" s="19"/>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="34">
+      <c r="B206" s="25">
         <v>44525</v>
       </c>
-      <c r="C206" s="35" t="s">
+      <c r="C206" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D206" s="28"/>
-      <c r="E206" s="28"/>
-      <c r="F206" s="29"/>
-      <c r="G206" s="29"/>
-      <c r="H206" s="18"/>
-      <c r="I206" s="28"/>
-      <c r="J206" s="28"/>
-      <c r="K206" s="28"/>
+      <c r="D206" s="19"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="20"/>
+      <c r="H206" s="14"/>
+      <c r="I206" s="19"/>
+      <c r="J206" s="19"/>
+      <c r="K206" s="19"/>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="34">
+      <c r="B207" s="25">
         <v>44526</v>
       </c>
-      <c r="C207" s="35" t="s">
+      <c r="C207" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D207" s="28"/>
-      <c r="E207" s="28"/>
-      <c r="F207" s="29"/>
-      <c r="G207" s="29"/>
-      <c r="H207" s="18"/>
-      <c r="I207" s="28"/>
-      <c r="J207" s="28"/>
-      <c r="K207" s="28"/>
+      <c r="D207" s="19"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="20"/>
+      <c r="H207" s="14"/>
+      <c r="I207" s="19"/>
+      <c r="J207" s="19"/>
+      <c r="K207" s="19"/>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="34">
+      <c r="B208" s="25">
         <v>44527</v>
       </c>
-      <c r="C208" s="35" t="s">
+      <c r="C208" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D208" s="28"/>
-      <c r="E208" s="28"/>
-      <c r="F208" s="29"/>
-      <c r="G208" s="29"/>
-      <c r="H208" s="18"/>
-      <c r="I208" s="28"/>
-      <c r="J208" s="28"/>
-      <c r="K208" s="28"/>
+      <c r="D208" s="19"/>
+      <c r="E208" s="19"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="20"/>
+      <c r="H208" s="14"/>
+      <c r="I208" s="19"/>
+      <c r="J208" s="19"/>
+      <c r="K208" s="19"/>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B209" s="34">
+      <c r="B209" s="25">
         <v>44528</v>
       </c>
-      <c r="C209" s="35" t="s">
+      <c r="C209" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D209" s="28"/>
-      <c r="E209" s="28"/>
-      <c r="F209" s="29"/>
-      <c r="G209" s="29"/>
-      <c r="H209" s="18"/>
-      <c r="I209" s="28"/>
-      <c r="J209" s="28"/>
-      <c r="K209" s="28"/>
+      <c r="D209" s="19"/>
+      <c r="E209" s="19"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="20"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="19"/>
+      <c r="J209" s="19"/>
+      <c r="K209" s="19"/>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B210" s="34">
+      <c r="B210" s="25">
         <v>44529</v>
       </c>
-      <c r="C210" s="35" t="s">
+      <c r="C210" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D210" s="28"/>
-      <c r="E210" s="28"/>
-      <c r="F210" s="29"/>
-      <c r="G210" s="29"/>
-      <c r="H210" s="18"/>
-      <c r="I210" s="28"/>
-      <c r="J210" s="28"/>
-      <c r="K210" s="28"/>
+      <c r="D210" s="19"/>
+      <c r="E210" s="19"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="20"/>
+      <c r="H210" s="14"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="19"/>
+      <c r="K210" s="19"/>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B211" s="34">
+      <c r="B211" s="25">
         <v>44530</v>
       </c>
-      <c r="C211" s="35" t="s">
+      <c r="C211" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D211" s="28"/>
-      <c r="E211" s="28"/>
-      <c r="F211" s="29"/>
-      <c r="G211" s="29"/>
-      <c r="H211" s="18"/>
-      <c r="I211" s="28"/>
-      <c r="J211" s="28"/>
-      <c r="K211" s="28"/>
+      <c r="D211" s="19"/>
+      <c r="E211" s="19"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="20"/>
+      <c r="H211" s="14"/>
+      <c r="I211" s="19"/>
+      <c r="J211" s="19"/>
+      <c r="K211" s="19"/>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B212" s="34">
+      <c r="B212" s="25">
         <v>44531</v>
       </c>
-      <c r="C212" s="35" t="s">
+      <c r="C212" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D212" s="28"/>
-      <c r="E212" s="28"/>
-      <c r="F212" s="29"/>
-      <c r="G212" s="29"/>
-      <c r="H212" s="18"/>
-      <c r="I212" s="28"/>
-      <c r="J212" s="28"/>
-      <c r="K212" s="28"/>
+      <c r="D212" s="19"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="20"/>
+      <c r="H212" s="14"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="19"/>
+      <c r="K212" s="19"/>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B213" s="34">
+      <c r="B213" s="25">
         <v>44532</v>
       </c>
-      <c r="C213" s="35" t="s">
+      <c r="C213" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D213" s="28"/>
-      <c r="E213" s="28"/>
-      <c r="F213" s="29"/>
-      <c r="G213" s="29"/>
-      <c r="H213" s="18"/>
-      <c r="I213" s="28"/>
-      <c r="J213" s="28"/>
-      <c r="K213" s="28"/>
+      <c r="D213" s="19"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="20"/>
+      <c r="G213" s="20"/>
+      <c r="H213" s="14"/>
+      <c r="I213" s="19"/>
+      <c r="J213" s="19"/>
+      <c r="K213" s="19"/>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B214" s="34">
+      <c r="B214" s="25">
         <v>44533</v>
       </c>
-      <c r="C214" s="35" t="s">
+      <c r="C214" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="28"/>
-      <c r="E214" s="28"/>
-      <c r="F214" s="29"/>
-      <c r="G214" s="29"/>
-      <c r="H214" s="18"/>
-      <c r="I214" s="28"/>
-      <c r="J214" s="28"/>
-      <c r="K214" s="28"/>
+      <c r="D214" s="19"/>
+      <c r="E214" s="19"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="20"/>
+      <c r="H214" s="14"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="19"/>
+      <c r="K214" s="19"/>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B215" s="34">
+      <c r="B215" s="25">
         <v>44534</v>
       </c>
-      <c r="C215" s="35" t="s">
+      <c r="C215" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D215" s="28"/>
-      <c r="E215" s="28"/>
-      <c r="F215" s="29"/>
-      <c r="G215" s="29"/>
-      <c r="H215" s="18"/>
-      <c r="I215" s="28"/>
-      <c r="J215" s="28"/>
-      <c r="K215" s="28"/>
+      <c r="D215" s="19"/>
+      <c r="E215" s="19"/>
+      <c r="F215" s="20"/>
+      <c r="G215" s="20"/>
+      <c r="H215" s="14"/>
+      <c r="I215" s="19"/>
+      <c r="J215" s="19"/>
+      <c r="K215" s="19"/>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B216" s="34">
+      <c r="B216" s="25">
         <v>44535</v>
       </c>
-      <c r="C216" s="35" t="s">
+      <c r="C216" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D216" s="28"/>
-      <c r="E216" s="28"/>
-      <c r="F216" s="29"/>
-      <c r="G216" s="29"/>
-      <c r="H216" s="18"/>
-      <c r="I216" s="28"/>
-      <c r="J216" s="28"/>
-      <c r="K216" s="28"/>
+      <c r="D216" s="19"/>
+      <c r="E216" s="19"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="20"/>
+      <c r="H216" s="14"/>
+      <c r="I216" s="19"/>
+      <c r="J216" s="19"/>
+      <c r="K216" s="19"/>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B217" s="34">
+      <c r="B217" s="25">
         <v>44536</v>
       </c>
-      <c r="C217" s="35" t="s">
+      <c r="C217" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D217" s="28"/>
-      <c r="E217" s="28"/>
-      <c r="F217" s="29"/>
-      <c r="G217" s="29"/>
-      <c r="H217" s="18"/>
-      <c r="I217" s="28"/>
-      <c r="J217" s="28"/>
-      <c r="K217" s="28"/>
+      <c r="D217" s="19"/>
+      <c r="E217" s="19"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="20"/>
+      <c r="H217" s="14"/>
+      <c r="I217" s="19"/>
+      <c r="J217" s="19"/>
+      <c r="K217" s="19"/>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B218" s="34">
+      <c r="B218" s="25">
         <v>44537</v>
       </c>
-      <c r="C218" s="35" t="s">
+      <c r="C218" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D218" s="28"/>
-      <c r="E218" s="28"/>
-      <c r="F218" s="29"/>
-      <c r="G218" s="29"/>
-      <c r="H218" s="18"/>
-      <c r="I218" s="28"/>
-      <c r="J218" s="28"/>
-      <c r="K218" s="28"/>
+      <c r="D218" s="19"/>
+      <c r="E218" s="19"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="20"/>
+      <c r="H218" s="14"/>
+      <c r="I218" s="19"/>
+      <c r="J218" s="19"/>
+      <c r="K218" s="19"/>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B219" s="34">
+      <c r="B219" s="25">
         <v>44538</v>
       </c>
-      <c r="C219" s="35" t="s">
+      <c r="C219" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D219" s="28"/>
-      <c r="E219" s="28"/>
-      <c r="F219" s="29"/>
-      <c r="G219" s="29"/>
-      <c r="H219" s="18"/>
-      <c r="I219" s="28"/>
-      <c r="J219" s="28"/>
-      <c r="K219" s="28"/>
+      <c r="D219" s="19"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
+      <c r="H219" s="14"/>
+      <c r="I219" s="19"/>
+      <c r="J219" s="19"/>
+      <c r="K219" s="19"/>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B220" s="34">
+      <c r="B220" s="25">
         <v>44539</v>
       </c>
-      <c r="C220" s="35" t="s">
+      <c r="C220" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D220" s="28"/>
-      <c r="E220" s="28"/>
-      <c r="F220" s="29"/>
-      <c r="G220" s="29"/>
-      <c r="H220" s="18"/>
-      <c r="I220" s="28"/>
-      <c r="J220" s="28"/>
-      <c r="K220" s="28"/>
+      <c r="D220" s="19"/>
+      <c r="E220" s="19"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="20"/>
+      <c r="H220" s="14"/>
+      <c r="I220" s="19"/>
+      <c r="J220" s="19"/>
+      <c r="K220" s="19"/>
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B221" s="34">
+      <c r="B221" s="25">
         <v>44540</v>
       </c>
-      <c r="C221" s="35" t="s">
+      <c r="C221" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D221" s="28"/>
-      <c r="E221" s="28"/>
-      <c r="F221" s="29"/>
-      <c r="G221" s="29"/>
-      <c r="H221" s="18"/>
-      <c r="I221" s="28"/>
-      <c r="J221" s="28"/>
-      <c r="K221" s="28"/>
+      <c r="D221" s="19"/>
+      <c r="E221" s="19"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="20"/>
+      <c r="H221" s="14"/>
+      <c r="I221" s="19"/>
+      <c r="J221" s="19"/>
+      <c r="K221" s="19"/>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B222" s="34">
+      <c r="B222" s="25">
         <v>44541</v>
       </c>
-      <c r="C222" s="35" t="s">
+      <c r="C222" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D222" s="28"/>
-      <c r="E222" s="28"/>
-      <c r="F222" s="29"/>
-      <c r="G222" s="29"/>
-      <c r="H222" s="18"/>
-      <c r="I222" s="28"/>
-      <c r="J222" s="28"/>
-      <c r="K222" s="28"/>
+      <c r="D222" s="19"/>
+      <c r="E222" s="19"/>
+      <c r="F222" s="20"/>
+      <c r="G222" s="20"/>
+      <c r="H222" s="14"/>
+      <c r="I222" s="19"/>
+      <c r="J222" s="19"/>
+      <c r="K222" s="19"/>
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B223" s="34">
+      <c r="B223" s="25">
         <v>44542</v>
       </c>
-      <c r="C223" s="35" t="s">
+      <c r="C223" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D223" s="28"/>
-      <c r="E223" s="28"/>
-      <c r="F223" s="29"/>
-      <c r="G223" s="29"/>
-      <c r="H223" s="18"/>
-      <c r="I223" s="28"/>
-      <c r="J223" s="28"/>
-      <c r="K223" s="28"/>
+      <c r="D223" s="19"/>
+      <c r="E223" s="19"/>
+      <c r="F223" s="20"/>
+      <c r="G223" s="20"/>
+      <c r="H223" s="14"/>
+      <c r="I223" s="19"/>
+      <c r="J223" s="19"/>
+      <c r="K223" s="19"/>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B224" s="34">
+      <c r="B224" s="25">
         <v>44543</v>
       </c>
-      <c r="C224" s="35" t="s">
+      <c r="C224" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D224" s="28"/>
-      <c r="E224" s="28"/>
-      <c r="F224" s="29"/>
-      <c r="G224" s="29"/>
-      <c r="H224" s="18"/>
-      <c r="I224" s="28"/>
-      <c r="J224" s="28"/>
-      <c r="K224" s="28"/>
+      <c r="D224" s="19"/>
+      <c r="E224" s="19"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="20"/>
+      <c r="H224" s="14"/>
+      <c r="I224" s="19"/>
+      <c r="J224" s="19"/>
+      <c r="K224" s="19"/>
     </row>
     <row r="225" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B225" s="34">
+      <c r="B225" s="25">
         <v>44544</v>
       </c>
-      <c r="C225" s="35" t="s">
+      <c r="C225" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D225" s="28"/>
-      <c r="E225" s="28"/>
-      <c r="F225" s="29"/>
-      <c r="G225" s="29"/>
-      <c r="H225" s="18"/>
-      <c r="I225" s="28"/>
-      <c r="J225" s="28"/>
-      <c r="K225" s="28"/>
+      <c r="D225" s="19"/>
+      <c r="E225" s="19"/>
+      <c r="F225" s="20"/>
+      <c r="G225" s="20"/>
+      <c r="H225" s="14"/>
+      <c r="I225" s="19"/>
+      <c r="J225" s="19"/>
+      <c r="K225" s="19"/>
     </row>
     <row r="226" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B226" s="34">
+      <c r="B226" s="25">
         <v>44545</v>
       </c>
-      <c r="C226" s="35" t="s">
+      <c r="C226" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D226" s="28"/>
-      <c r="E226" s="28"/>
-      <c r="F226" s="29"/>
-      <c r="G226" s="29"/>
-      <c r="H226" s="18"/>
-      <c r="I226" s="28"/>
-      <c r="J226" s="28"/>
-      <c r="K226" s="28"/>
+      <c r="D226" s="19"/>
+      <c r="E226" s="19"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="20"/>
+      <c r="H226" s="14"/>
+      <c r="I226" s="19"/>
+      <c r="J226" s="19"/>
+      <c r="K226" s="19"/>
     </row>
     <row r="227" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B227" s="34">
+      <c r="B227" s="25">
         <v>44546</v>
       </c>
-      <c r="C227" s="35" t="s">
+      <c r="C227" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D227" s="28"/>
-      <c r="E227" s="28"/>
-      <c r="F227" s="29"/>
-      <c r="G227" s="29"/>
-      <c r="H227" s="18"/>
-      <c r="I227" s="28"/>
-      <c r="J227" s="28"/>
-      <c r="K227" s="28"/>
+      <c r="D227" s="19"/>
+      <c r="E227" s="19"/>
+      <c r="F227" s="20"/>
+      <c r="G227" s="20"/>
+      <c r="H227" s="14"/>
+      <c r="I227" s="19"/>
+      <c r="J227" s="19"/>
+      <c r="K227" s="19"/>
     </row>
     <row r="228" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B228" s="34">
+      <c r="B228" s="25">
         <v>44547</v>
       </c>
-      <c r="C228" s="35" t="s">
+      <c r="C228" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D228" s="28"/>
-      <c r="E228" s="28"/>
-      <c r="F228" s="29"/>
-      <c r="G228" s="29"/>
-      <c r="H228" s="18"/>
-      <c r="I228" s="28"/>
-      <c r="J228" s="28"/>
-      <c r="K228" s="28"/>
+      <c r="D228" s="19"/>
+      <c r="E228" s="19"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="20"/>
+      <c r="H228" s="14"/>
+      <c r="I228" s="19"/>
+      <c r="J228" s="19"/>
+      <c r="K228" s="19"/>
     </row>
     <row r="229" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B229" s="34">
+      <c r="B229" s="25">
         <v>44548</v>
       </c>
-      <c r="C229" s="35" t="s">
+      <c r="C229" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D229" s="28"/>
-      <c r="E229" s="28"/>
-      <c r="F229" s="29"/>
-      <c r="G229" s="29"/>
-      <c r="H229" s="18"/>
-      <c r="I229" s="28"/>
-      <c r="J229" s="28"/>
-      <c r="K229" s="28"/>
+      <c r="D229" s="19"/>
+      <c r="E229" s="19"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="20"/>
+      <c r="H229" s="14"/>
+      <c r="I229" s="19"/>
+      <c r="J229" s="19"/>
+      <c r="K229" s="19"/>
     </row>
     <row r="230" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B230" s="34">
+      <c r="B230" s="25">
         <v>44549</v>
       </c>
-      <c r="C230" s="35" t="s">
+      <c r="C230" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D230" s="28"/>
-      <c r="E230" s="28"/>
-      <c r="F230" s="29"/>
-      <c r="G230" s="29"/>
-      <c r="H230" s="18"/>
-      <c r="I230" s="28"/>
-      <c r="J230" s="28"/>
-      <c r="K230" s="28"/>
+      <c r="D230" s="19"/>
+      <c r="E230" s="19"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="20"/>
+      <c r="H230" s="14"/>
+      <c r="I230" s="19"/>
+      <c r="J230" s="19"/>
+      <c r="K230" s="19"/>
     </row>
     <row r="231" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B231" s="34">
+      <c r="B231" s="25">
         <v>44550</v>
       </c>
-      <c r="C231" s="35" t="s">
+      <c r="C231" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D231" s="28"/>
-      <c r="E231" s="28"/>
-      <c r="F231" s="29"/>
-      <c r="G231" s="29"/>
-      <c r="H231" s="18"/>
-      <c r="I231" s="28"/>
-      <c r="J231" s="28"/>
-      <c r="K231" s="28"/>
+      <c r="D231" s="19"/>
+      <c r="E231" s="19"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="20"/>
+      <c r="H231" s="14"/>
+      <c r="I231" s="19"/>
+      <c r="J231" s="19"/>
+      <c r="K231" s="19"/>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B232" s="34">
+      <c r="B232" s="25">
         <v>44551</v>
       </c>
-      <c r="C232" s="35" t="s">
+      <c r="C232" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D232" s="28"/>
-      <c r="E232" s="28"/>
-      <c r="F232" s="29"/>
-      <c r="G232" s="29"/>
-      <c r="H232" s="18"/>
-      <c r="I232" s="28"/>
-      <c r="J232" s="28"/>
-      <c r="K232" s="28"/>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="20"/>
+      <c r="H232" s="14"/>
+      <c r="I232" s="19"/>
+      <c r="J232" s="19"/>
+      <c r="K232" s="19"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B233" s="34">
+      <c r="B233" s="25">
         <v>44552</v>
       </c>
-      <c r="C233" s="35" t="s">
+      <c r="C233" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D233" s="28"/>
-      <c r="E233" s="28"/>
-      <c r="F233" s="29"/>
-      <c r="G233" s="29"/>
-      <c r="H233" s="18"/>
-      <c r="I233" s="28"/>
-      <c r="J233" s="28"/>
-      <c r="K233" s="28"/>
+      <c r="D233" s="19"/>
+      <c r="E233" s="19"/>
+      <c r="F233" s="20"/>
+      <c r="G233" s="20"/>
+      <c r="H233" s="14"/>
+      <c r="I233" s="19"/>
+      <c r="J233" s="19"/>
+      <c r="K233" s="19"/>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B234" s="34">
+      <c r="B234" s="25">
         <v>44553</v>
       </c>
-      <c r="C234" s="35" t="s">
+      <c r="C234" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D234" s="28"/>
-      <c r="E234" s="28"/>
-      <c r="F234" s="29"/>
-      <c r="G234" s="29"/>
-      <c r="H234" s="18"/>
-      <c r="I234" s="28"/>
-      <c r="J234" s="28"/>
-      <c r="K234" s="28"/>
+      <c r="D234" s="19"/>
+      <c r="E234" s="19"/>
+      <c r="F234" s="20"/>
+      <c r="G234" s="20"/>
+      <c r="H234" s="14"/>
+      <c r="I234" s="19"/>
+      <c r="J234" s="19"/>
+      <c r="K234" s="19"/>
     </row>
     <row r="235" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B235" s="38">
+      <c r="B235" s="29">
         <v>44554</v>
       </c>
-      <c r="C235" s="39" t="s">
+      <c r="C235" s="30" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
-      <c r="H235" s="19"/>
+      <c r="H235" s="15"/>
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
       <c r="K235" s="6"/>
@@ -4891,8 +4906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6285893-5F06-4BFA-9FBD-BAC194E88662}">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4902,24 +4917,24 @@
   <sheetData>
     <row r="2" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="4">
@@ -4931,13 +4946,13 @@
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <f>D4/C4</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="4">
@@ -4949,13 +4964,13 @@
       <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <f t="shared" ref="F5:F31" si="0">D5/C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="4">
@@ -4967,13 +4982,13 @@
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="4">
@@ -4985,13 +5000,13 @@
       <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="4">
@@ -5003,12 +5018,12 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="4">
@@ -5020,13 +5035,13 @@
       <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="4">
@@ -5038,13 +5053,13 @@
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="4">
@@ -5056,12 +5071,12 @@
       <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="4">
@@ -5073,13 +5088,13 @@
       <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="4">
@@ -5091,13 +5106,13 @@
       <c r="E13" s="4">
         <v>2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="4">
@@ -5109,12 +5124,12 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="4">
@@ -5126,13 +5141,13 @@
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4">
@@ -5144,13 +5159,13 @@
       <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="4">
@@ -5162,13 +5177,13 @@
       <c r="E17" s="4">
         <v>3</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="4">
@@ -5180,12 +5195,12 @@
       <c r="E18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="4">
@@ -5197,12 +5212,12 @@
       <c r="E19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="4">
@@ -5214,13 +5229,13 @@
       <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="4">
@@ -5232,13 +5247,13 @@
       <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="4">
@@ -5250,13 +5265,13 @@
       <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="4">
@@ -5268,13 +5283,13 @@
       <c r="E23" s="4">
         <v>5</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="4">
@@ -5286,31 +5301,31 @@
       <c r="E24" s="4">
         <v>2</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="12"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="4">
@@ -5322,22 +5337,22 @@
       <c r="E27" s="4">
         <v>0</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="4">
@@ -5349,13 +5364,13 @@
       <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="4">
@@ -5367,28 +5382,28 @@
       <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <f>SUM(C4:C30)</f>
         <v>77</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <f>SUM(D4:D30)</f>
         <v>43</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <f>SUM(E4:E30)</f>
         <v>34</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <f t="shared" si="0"/>
         <v>0.55844155844155841</v>
       </c>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951F3173-21F9-480A-9857-A46836D84FCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A1C1D1-28EA-4212-9E3E-10BD96E1E23F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="768" windowWidth="18288" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="864" yWindow="384" windowWidth="18288" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="53">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -994,7 +994,7 @@
   <dimension ref="B2:K235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1456,8 +1456,12 @@
       <c r="C21" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="28"/>
+      <c r="D21" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>15</v>
+      </c>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="14"/>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A1C1D1-28EA-4212-9E3E-10BD96E1E23F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C30995D-5DBF-4651-98EE-1A2B63E8B3AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="864" yWindow="384" windowWidth="18288" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="53">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02495101-E5A4-4F2A-803C-CC7BBFBBC13A}">
   <dimension ref="B2:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1476,14 +1476,28 @@
       <c r="C22" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="D22" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
+      <c r="G22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="14">
+        <v>2</v>
+      </c>
+      <c r="I22" s="19">
+        <v>2</v>
+      </c>
+      <c r="J22" s="19">
+        <v>0</v>
+      </c>
+      <c r="K22" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="25">
@@ -4910,7 +4924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6285893-5F06-4BFA-9FBD-BAC194E88662}">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C30995D-5DBF-4651-98EE-1A2B63E8B3AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2DA4BB-9F65-44EA-8288-2A3602B8534D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="384" windowWidth="18288" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="936" yWindow="384" windowWidth="18288" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="53">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02495101-E5A4-4F2A-803C-CC7BBFBBC13A}">
   <dimension ref="B2:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1487,16 +1487,16 @@
         <v>18</v>
       </c>
       <c r="H22" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -1506,14 +1506,28 @@
       <c r="C23" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
+      <c r="D23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="G23" s="20"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+      <c r="H23" s="14">
+        <v>3</v>
+      </c>
+      <c r="I23" s="19">
+        <v>2</v>
+      </c>
+      <c r="J23" s="19">
+        <v>1</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0.66666599999999998</v>
+      </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="25">

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2DA4BB-9F65-44EA-8288-2A3602B8534D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A2CBAE-9BE6-4F2A-94D0-F26A5AB9DE2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="384" windowWidth="18288" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="1416" yWindow="1476" windowWidth="18288" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="54">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t>战况（5月9号前的数据见sheet2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她想打游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02495101-E5A4-4F2A-803C-CC7BBFBBC13A}">
   <dimension ref="B2:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1536,14 +1540,28 @@
       <c r="C24" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="D24" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
+      <c r="G24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="14">
+        <v>2</v>
+      </c>
+      <c r="I24" s="19">
+        <v>1</v>
+      </c>
+      <c r="J24" s="19">
+        <v>1</v>
+      </c>
+      <c r="K24" s="19">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="25">
@@ -4938,8 +4956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6285893-5F06-4BFA-9FBD-BAC194E88662}">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A2CBAE-9BE6-4F2A-94D0-F26A5AB9DE2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5727812E-0580-445D-8BF8-3B4EB3F93DAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1416" yWindow="1476" windowWidth="18288" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="55">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,10 @@
     <t>她想打游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>今天CY生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -354,7 +358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -554,13 +558,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,6 +692,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -998,7 +1017,7 @@
   <dimension ref="B2:K235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1570,10 +1589,16 @@
       <c r="C25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="D25" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="41"/>
       <c r="H25" s="14"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -1586,14 +1611,28 @@
       <c r="C26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
+      <c r="D26" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="G26" s="20"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
+      <c r="H26" s="14">
+        <v>4</v>
+      </c>
+      <c r="I26" s="19">
+        <v>4</v>
+      </c>
+      <c r="J26" s="19">
+        <v>0</v>
+      </c>
+      <c r="K26" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="25">
@@ -4940,11 +4979,12 @@
       <c r="K235" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="B2:K3"/>
+    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5727812E-0580-445D-8BF8-3B4EB3F93DAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D9D66F-A6D2-48A0-9D73-8F35E2F8633F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1416" yWindow="1476" windowWidth="18288" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="55">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1017,7 +1017,7 @@
   <dimension ref="B2:K235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1641,8 +1641,12 @@
       <c r="C27" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="D27" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>15</v>
+      </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="14"/>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D9D66F-A6D2-48A0-9D73-8F35E2F8633F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC099ECC-AF7D-47AF-952A-6E301779E905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1416" yWindow="1476" windowWidth="18288" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="56">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,10 @@
     <t>今天CY生日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>今天是很特别的一天，陈钰又成为了我的女朋友，哈哈哈，挺开心，挺激动的。这一次我不会让她再离开我了，我会一直对她好，一直爱着她，让她感受到温暖。我会努力提升我自己，会努力给她一个美好的未来，让她成为这个世界上最最幸福的女孩。我不允许任何人伤害她，包括我自己。哈哈哈。未来可期吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -282,7 +286,7 @@
     <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +350,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -573,7 +585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,6 +677,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1017,7 +1035,7 @@
   <dimension ref="B2:K235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1033,48 +1051,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -1595,10 +1613,10 @@
       <c r="E25" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="41"/>
+      <c r="G25" s="43"/>
       <c r="H25" s="14"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -1635,10 +1653,10 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="25">
+      <c r="B27" s="31">
         <v>44346</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="27" t="s">
@@ -1647,7 +1665,9 @@
       <c r="E27" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="20"/>
+      <c r="F27" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="G27" s="20"/>
       <c r="H27" s="14"/>
       <c r="I27" s="19"/>
@@ -1661,14 +1681,28 @@
       <c r="C28" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="D28" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+      <c r="G28" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="14">
+        <v>1</v>
+      </c>
+      <c r="I28" s="19">
+        <v>0</v>
+      </c>
+      <c r="J28" s="19">
+        <v>1</v>
+      </c>
+      <c r="K28" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="25">

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC099ECC-AF7D-47AF-952A-6E301779E905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCDCD3C-611B-42DF-B5A9-124940A9ACF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="1476" windowWidth="18288" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="528" yWindow="1704" windowWidth="21552" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="56">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1035,7 +1035,7 @@
   <dimension ref="B2:K235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1711,8 +1711,12 @@
       <c r="C29" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="D29" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>15</v>
+      </c>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="14"/>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCDCD3C-611B-42DF-B5A9-124940A9ACF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6217E0-1438-4E27-9D72-F4BE6C2ABEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="528" yWindow="1704" windowWidth="21552" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="56">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02495101-E5A4-4F2A-803C-CC7BBFBBC13A}">
   <dimension ref="B2:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1731,14 +1731,28 @@
       <c r="C30" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="D30" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
+      <c r="G30" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="14">
+        <v>1</v>
+      </c>
+      <c r="I30" s="19">
+        <v>1</v>
+      </c>
+      <c r="J30" s="19">
+        <v>0</v>
+      </c>
+      <c r="K30" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="25">

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6217E0-1438-4E27-9D72-F4BE6C2ABEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4959DB-3D7A-4E85-B9B3-1DB7235937B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="528" yWindow="1704" windowWidth="21552" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="1488" yWindow="2076" windowWidth="21552" windowHeight="10884" activeTab="1" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="56">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,7 +585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,6 +717,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02495101-E5A4-4F2A-803C-CC7BBFBBC13A}">
   <dimension ref="B2:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1665,9 +1671,7 @@
       <c r="E27" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="14"/>
       <c r="I27" s="19"/>
@@ -1761,14 +1765,28 @@
       <c r="C31" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="D31" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
+      <c r="G31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="14">
+        <v>4</v>
+      </c>
+      <c r="I31" s="19">
+        <v>2</v>
+      </c>
+      <c r="J31" s="19">
+        <v>2</v>
+      </c>
+      <c r="K31" s="19">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="25">
@@ -5050,14 +5068,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6285893-5F06-4BFA-9FBD-BAC194E88662}">
-  <dimension ref="B2:F31"/>
+  <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5554,6 +5573,14 @@
         <v>0.55844155844155841</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="45">
+        <v>44346</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4959DB-3D7A-4E85-B9B3-1DB7235937B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD9086-D5D8-4E0E-BDC7-58C191A4D39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1488" yWindow="2076" windowWidth="21552" windowHeight="10884" activeTab="1" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="1488" yWindow="2076" windowWidth="21552" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="56">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,7 +585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +685,12 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,11 +724,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02495101-E5A4-4F2A-803C-CC7BBFBBC13A}">
   <dimension ref="B2:K235"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1057,48 +1060,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -1619,10 +1622,10 @@
       <c r="E25" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="43"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="14"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -1795,8 +1798,12 @@
       <c r="C32" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="D32" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>15</v>
+      </c>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="14"/>
@@ -5070,7 +5077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6285893-5F06-4BFA-9FBD-BAC194E88662}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -5574,10 +5581,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="45">
+      <c r="A33" s="34">
         <v>44346</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="33" t="s">
         <v>55</v>
       </c>
     </row>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD9086-D5D8-4E0E-BDC7-58C191A4D39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B559C7F-6B79-40B9-92DE-FB4D8C929C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1488" yWindow="2076" windowWidth="21552" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="56">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -691,6 +691,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,9 +725,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1044,7 @@
   <dimension ref="B2:K235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:E32"/>
+      <selection activeCell="E32" sqref="E32:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1060,48 +1060,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -1622,10 +1622,10 @@
       <c r="E25" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="45"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="14"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -1798,7 +1798,7 @@
       <c r="C32" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="27" t="s">
@@ -1818,8 +1818,12 @@
       <c r="C33" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
+      <c r="D33" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>15</v>
+      </c>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="14"/>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B559C7F-6B79-40B9-92DE-FB4D8C929C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD4B388-46C3-49AB-90AD-8D9BDA548F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1488" yWindow="2076" windowWidth="21552" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="1488" yWindow="1920" windowWidth="21552" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="56">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,7 +286,7 @@
     <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +356,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -585,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,6 +733,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1055,7 @@
   <dimension ref="B2:K235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E33"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1838,14 +1849,28 @@
       <c r="C34" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="D34" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
+      <c r="G34" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="14">
+        <v>3</v>
+      </c>
+      <c r="I34" s="19">
+        <v>1</v>
+      </c>
+      <c r="J34" s="19">
+        <v>2</v>
+      </c>
+      <c r="K34" s="19">
+        <v>0.3333333</v>
+      </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="25">

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD4B388-46C3-49AB-90AD-8D9BDA548F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C469A0-D733-405A-9EC9-5B2A642FF3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1488" yWindow="1920" windowWidth="21552" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="528" yWindow="1740" windowWidth="21552" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="56">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -702,6 +702,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,9 +736,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1055,7 +1055,7 @@
   <dimension ref="B2:K235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1071,48 +1071,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -1633,10 +1633,10 @@
       <c r="E25" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="46"/>
+      <c r="G25" s="47"/>
       <c r="H25" s="14"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -1849,7 +1849,7 @@
       <c r="C34" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="28" t="s">
@@ -1879,8 +1879,12 @@
       <c r="C35" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
+      <c r="D35" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>15</v>
+      </c>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="H35" s="14"/>

--- a/监督.xlsx
+++ b/监督.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C469A0-D733-405A-9EC9-5B2A642FF3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC03EB7-7DE6-4570-B118-563EB8D1BFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="528" yWindow="1740" windowWidth="21552" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
+    <workbookView xWindow="528" yWindow="1380" windowWidth="21552" windowHeight="10884" xr2:uid="{45A47C9B-CD7F-4379-BB60-9EC3F4586C14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="56">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,6 +703,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1055,7 +1058,7 @@
   <dimension ref="B2:K235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1071,48 +1074,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -1633,10 +1636,10 @@
       <c r="E25" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="47"/>
+      <c r="G25" s="48"/>
       <c r="H25" s="14"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -1899,14 +1902,28 @@
       <c r="C36" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
+      <c r="D36" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="37">
+        <v>2</v>
+      </c>
+      <c r="I36" s="19">
+        <v>1</v>
+      </c>
+      <c r="J36" s="19">
+        <v>1</v>
+      </c>
+      <c r="K36" s="19">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="25">
@@ -1915,8 +1932,12 @@
       <c r="C37" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="D37" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="H37" s="14"/>
